--- a/capiq_data/in_process_data/IQ24827.xlsx
+++ b/capiq_data/in_process_data/IQ24827.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E545A0-2D90-4B76-BD18-9FBD250DAF14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347CA9EB-4D98-4C41-8092-C24801CA0F15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"4a8a7321-b4eb-4934-9ac5-329500541939"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"7f559c68-44a2-43e1-87ce-5e90b564463c"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>131.113</v>
+        <v>32.595999999999997</v>
       </c>
       <c r="D2">
-        <v>949.88599999999997</v>
+        <v>369.44900000000001</v>
       </c>
       <c r="E2">
-        <v>718.54499999999996</v>
+        <v>170.22200000000001</v>
       </c>
       <c r="F2">
-        <v>310.02</v>
+        <v>131.124</v>
       </c>
       <c r="G2">
-        <v>1992.13</v>
+        <v>412.67</v>
       </c>
       <c r="H2">
-        <v>4015.857</v>
+        <v>1004.322</v>
       </c>
       <c r="I2">
-        <v>384.96300000000002</v>
+        <v>122.01</v>
       </c>
       <c r="J2">
-        <v>799.64</v>
+        <v>700.21600000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>654.99</v>
+        <v>242.53899999999999</v>
       </c>
       <c r="O2">
-        <v>1673.1420000000001</v>
+        <v>975.08799999999997</v>
       </c>
       <c r="P2">
-        <v>799.99199999999996</v>
+        <v>728.346</v>
       </c>
       <c r="Q2">
-        <v>45.36</v>
+        <v>7.1840000000000002</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>39100</v>
+        <v>11600</v>
       </c>
       <c r="T2">
-        <v>2342.7150000000001</v>
+        <v>29.234000000000002</v>
       </c>
       <c r="U2">
-        <v>525.88800000000003</v>
+        <v>24.585000000000001</v>
       </c>
       <c r="V2">
-        <v>160.68199999999999</v>
+        <v>48.511000000000003</v>
       </c>
       <c r="W2">
-        <v>-2.6120000000000001</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-72.662999999999997</v>
+        <v>-16.488</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>8.9039999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>131.113</v>
+        <v>32.595999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>127.958</v>
+        <v>28.504999999999999</v>
       </c>
       <c r="D3">
-        <v>940.58500000000004</v>
+        <v>316.67200000000003</v>
       </c>
       <c r="E3">
-        <v>744.20299999999997</v>
+        <v>133.839</v>
       </c>
       <c r="F3">
-        <v>304.12400000000002</v>
+        <v>117.17100000000001</v>
       </c>
       <c r="G3">
-        <v>2145.8939999999998</v>
+        <v>380.68099999999998</v>
       </c>
       <c r="H3">
-        <v>4171.2330000000002</v>
+        <v>969.87199999999996</v>
       </c>
       <c r="I3">
-        <v>414.29599999999999</v>
+        <v>111.22499999999999</v>
       </c>
       <c r="J3">
-        <v>949.38499999999999</v>
+        <v>700.18499999999995</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-62.7</v>
+        <v>-30</v>
       </c>
       <c r="N3">
-        <v>682.42700000000002</v>
+        <v>192.10400000000001</v>
       </c>
       <c r="O3">
-        <v>1844.7539999999999</v>
+        <v>926.274</v>
       </c>
       <c r="P3">
-        <v>949.71400000000006</v>
+        <v>702.12400000000002</v>
       </c>
       <c r="Q3">
-        <v>67.111000000000004</v>
+        <v>-2.6120000000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2326.4789999999998</v>
+        <v>43.597999999999999</v>
       </c>
       <c r="U3">
-        <v>592.99900000000002</v>
+        <v>21.972999999999999</v>
       </c>
       <c r="V3">
-        <v>107.738</v>
+        <v>37.253999999999998</v>
       </c>
       <c r="W3">
-        <v>-2.633</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-25.515999999999998</v>
+        <v>-22.436</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>127.958</v>
+        <v>28.504999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>147.751</v>
+        <v>22.536000000000001</v>
       </c>
       <c r="D4">
-        <v>1017.7380000000001</v>
+        <v>274.14600000000002</v>
       </c>
       <c r="E4">
-        <v>793.41800000000001</v>
+        <v>139.934</v>
       </c>
       <c r="F4">
-        <v>321.22199999999998</v>
+        <v>101.97499999999999</v>
       </c>
       <c r="G4">
-        <v>2246.6799999999998</v>
+        <v>392.42700000000002</v>
       </c>
       <c r="H4">
-        <v>4322.7349999999997</v>
+        <v>998.57899999999995</v>
       </c>
       <c r="I4">
-        <v>426.18400000000003</v>
+        <v>86.885999999999996</v>
       </c>
       <c r="J4">
-        <v>1157.5889999999999</v>
+        <v>688.40599999999995</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>648.37800000000004</v>
+        <v>213.45400000000001</v>
       </c>
       <c r="O4">
-        <v>2013.3309999999999</v>
+        <v>933.93200000000002</v>
       </c>
       <c r="P4">
-        <v>1157.9169999999999</v>
+        <v>747.96100000000001</v>
       </c>
       <c r="Q4">
-        <v>18.209</v>
+        <v>-4.8380000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2309.404</v>
+        <v>64.647000000000006</v>
       </c>
       <c r="U4">
-        <v>611.20799999999997</v>
+        <v>17.135000000000002</v>
       </c>
       <c r="V4">
-        <v>104.60899999999999</v>
+        <v>7.7690000000000001</v>
       </c>
       <c r="W4">
-        <v>-2.6080000000000001</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-30.626999999999999</v>
+        <v>22.236999999999998</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>13.074999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>147.751</v>
+        <v>22.536000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>134.62299999999999</v>
+        <v>16.632999999999999</v>
       </c>
       <c r="D5">
-        <v>1032.7539999999999</v>
+        <v>252.58099999999999</v>
       </c>
       <c r="E5">
-        <v>803.47699999999998</v>
+        <v>142.291</v>
       </c>
       <c r="F5">
-        <v>323.47699999999998</v>
+        <v>90.921999999999997</v>
       </c>
       <c r="G5">
-        <v>2327.8119999999999</v>
+        <v>400.50599999999997</v>
       </c>
       <c r="H5">
-        <v>4361.7960000000003</v>
+        <v>1043.568</v>
       </c>
       <c r="I5">
-        <v>418.20100000000002</v>
+        <v>81.457999999999998</v>
       </c>
       <c r="J5">
-        <v>1265.0260000000001</v>
+        <v>689.16399999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>662.20299999999997</v>
+        <v>211.797</v>
       </c>
       <c r="O5">
-        <v>2132.2469999999998</v>
+        <v>933.87400000000002</v>
       </c>
       <c r="P5">
-        <v>1265.33</v>
+        <v>748.63199999999995</v>
       </c>
       <c r="Q5">
-        <v>78.971000000000004</v>
+        <v>5.6139999999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2229.549</v>
+        <v>109.694</v>
       </c>
       <c r="U5">
-        <v>690.17899999999997</v>
+        <v>22.748999999999999</v>
       </c>
       <c r="V5">
-        <v>184.24199999999999</v>
+        <v>37.167000000000002</v>
       </c>
       <c r="W5">
-        <v>-2.5470000000000002</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-67.078000000000003</v>
+        <v>2.3919999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-5.383</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>134.62299999999999</v>
+        <v>16.632999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>113.85899999999999</v>
+        <v>16.036000000000001</v>
       </c>
       <c r="D6">
-        <v>948.70899999999995</v>
+        <v>260.37200000000001</v>
       </c>
       <c r="E6">
-        <v>767.18100000000004</v>
+        <v>113.37</v>
       </c>
       <c r="F6">
-        <v>294.83699999999999</v>
+        <v>89.424999999999997</v>
       </c>
       <c r="G6">
-        <v>2181.2370000000001</v>
+        <v>370.25700000000001</v>
       </c>
       <c r="H6">
-        <v>4445.2250000000004</v>
+        <v>1026.7429999999999</v>
       </c>
       <c r="I6">
-        <v>377.86700000000002</v>
+        <v>80.501000000000005</v>
       </c>
       <c r="J6">
-        <v>1376.8309999999999</v>
+        <v>660.61400000000003</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>642.41499999999996</v>
+        <v>203.4</v>
       </c>
       <c r="O6">
-        <v>2260.4389999999999</v>
+        <v>922.81</v>
       </c>
       <c r="P6">
-        <v>1377.1289999999999</v>
+        <v>720.31899999999996</v>
       </c>
       <c r="Q6">
-        <v>-175.09299999999999</v>
+        <v>5.226</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>39100</v>
+        <v>10300</v>
       </c>
       <c r="T6">
-        <v>2184.7860000000001</v>
+        <v>103.93300000000001</v>
       </c>
       <c r="U6">
-        <v>515.08600000000001</v>
+        <v>27.975000000000001</v>
       </c>
       <c r="V6">
-        <v>168.61799999999999</v>
+        <v>36.659999999999997</v>
       </c>
       <c r="W6">
-        <v>-2.4940000000000002</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-27.927</v>
+        <v>-18.579999999999998</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-43.118000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>113.85899999999999</v>
+        <v>16.036000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>126.563</v>
+        <v>17.193000000000001</v>
       </c>
       <c r="D7">
-        <v>981.60400000000004</v>
+        <v>255.976</v>
       </c>
       <c r="E7">
-        <v>771.4</v>
+        <v>116.45099999999999</v>
       </c>
       <c r="F7">
-        <v>309.27100000000002</v>
+        <v>85.241</v>
       </c>
       <c r="G7">
-        <v>2291.8000000000002</v>
+        <v>363.98599999999999</v>
       </c>
       <c r="H7">
-        <v>4577.38</v>
+        <v>1022.551</v>
       </c>
       <c r="I7">
-        <v>402.916</v>
+        <v>83.159000000000006</v>
       </c>
       <c r="J7">
-        <v>1316.819</v>
+        <v>639.94899999999996</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-708.74699999999996</v>
+        <v>-23.875</v>
       </c>
       <c r="N7">
-        <v>744.97900000000004</v>
+        <v>209.56700000000001</v>
       </c>
       <c r="O7">
-        <v>2312.6619999999998</v>
+        <v>902.43700000000001</v>
       </c>
       <c r="P7">
-        <v>1395.117</v>
+        <v>694.61199999999997</v>
       </c>
       <c r="Q7">
-        <v>105.89700000000001</v>
+        <v>-1.1779999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2264.7179999999998</v>
+        <v>120.114</v>
       </c>
       <c r="U7">
-        <v>620.98299999999995</v>
+        <v>26.797000000000001</v>
       </c>
       <c r="V7">
-        <v>164.20400000000001</v>
+        <v>43.634999999999998</v>
       </c>
       <c r="W7">
-        <v>-2.448</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-42.917999999999999</v>
+        <v>-28.774999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>11.599</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>126.563</v>
+        <v>17.193000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>140.94200000000001</v>
+        <v>20.003</v>
       </c>
       <c r="D8">
-        <v>1061.107</v>
+        <v>270.86500000000001</v>
       </c>
       <c r="E8">
-        <v>840.09</v>
+        <v>132.97999999999999</v>
       </c>
       <c r="F8">
-        <v>334.161</v>
+        <v>92.38</v>
       </c>
       <c r="G8">
-        <v>2426.16</v>
+        <v>376.346</v>
       </c>
       <c r="H8">
-        <v>4766.8389999999999</v>
+        <v>1037.9590000000001</v>
       </c>
       <c r="I8">
-        <v>431.95400000000001</v>
+        <v>85.563999999999993</v>
       </c>
       <c r="J8">
-        <v>1454.5450000000001</v>
+        <v>585.86</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>801.65599999999995</v>
+        <v>241.786</v>
       </c>
       <c r="O8">
-        <v>2503.3220000000001</v>
+        <v>879.48299999999995</v>
       </c>
       <c r="P8">
-        <v>1543.829</v>
+        <v>669.33500000000004</v>
       </c>
       <c r="Q8">
-        <v>25.030999999999999</v>
+        <v>-7.5590000000000002</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2263.5169999999998</v>
+        <v>158.476</v>
       </c>
       <c r="U8">
-        <v>646.01400000000001</v>
+        <v>19.238</v>
       </c>
       <c r="V8">
-        <v>127.401</v>
+        <v>30.187999999999999</v>
       </c>
       <c r="W8">
-        <v>-17.052</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>28.681000000000001</v>
+        <v>-33.898000000000003</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-12.201000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>140.94200000000001</v>
+        <v>20.003</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>147.44999999999999</v>
+        <v>20.666</v>
       </c>
       <c r="D9">
-        <v>1103.376</v>
+        <v>268.11500000000001</v>
       </c>
       <c r="E9">
-        <v>903.34400000000005</v>
+        <v>129.12799999999999</v>
       </c>
       <c r="F9">
-        <v>344.32900000000001</v>
+        <v>92.052000000000007</v>
       </c>
       <c r="G9">
-        <v>2640.9810000000002</v>
+        <v>370.22699999999998</v>
       </c>
       <c r="H9">
-        <v>5070.9650000000001</v>
+        <v>1028.636</v>
       </c>
       <c r="I9">
-        <v>478.1</v>
+        <v>83.185000000000002</v>
       </c>
       <c r="J9">
-        <v>1511.297</v>
+        <v>557.31600000000003</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>864.58799999999997</v>
+        <v>244.61699999999999</v>
       </c>
       <c r="O9">
-        <v>2632.7469999999998</v>
+        <v>849.74</v>
       </c>
       <c r="P9">
-        <v>1605.39</v>
+        <v>640.68899999999996</v>
       </c>
       <c r="Q9">
-        <v>79.531999999999996</v>
+        <v>5.9660000000000002</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2438.2179999999998</v>
+        <v>178.89599999999999</v>
       </c>
       <c r="U9">
-        <v>725.54600000000005</v>
+        <v>25.204000000000001</v>
       </c>
       <c r="V9">
-        <v>175.99799999999999</v>
+        <v>39.148000000000003</v>
       </c>
       <c r="W9">
-        <v>-16.885000000000002</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>59.003999999999998</v>
+        <v>-25.225000000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-32.895000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>147.44999999999999</v>
+        <v>20.666</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>140.36199999999999</v>
+        <v>22.481999999999999</v>
       </c>
       <c r="D10">
-        <v>1145.9780000000001</v>
+        <v>267.04599999999999</v>
       </c>
       <c r="E10">
-        <v>910.71100000000001</v>
+        <v>131.25200000000001</v>
       </c>
       <c r="F10">
-        <v>355.45100000000002</v>
+        <v>92.027000000000001</v>
       </c>
       <c r="G10">
-        <v>2706.915</v>
+        <v>389.16399999999999</v>
       </c>
       <c r="H10">
-        <v>5215.4629999999997</v>
+        <v>1078.9079999999999</v>
       </c>
       <c r="I10">
-        <v>496.52499999999998</v>
+        <v>88.533000000000001</v>
       </c>
       <c r="J10">
-        <v>1606.204</v>
+        <v>565.88499999999999</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>888.51400000000001</v>
+        <v>235.91399999999999</v>
       </c>
       <c r="O10">
-        <v>2773.2809999999999</v>
+        <v>911.92600000000004</v>
       </c>
       <c r="P10">
-        <v>1706.4970000000001</v>
+        <v>644.24800000000005</v>
       </c>
       <c r="Q10">
-        <v>-34.695999999999998</v>
+        <v>-4.5449999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>41600</v>
+        <v>11100</v>
       </c>
       <c r="T10">
-        <v>2442.1819999999998</v>
+        <v>166.982</v>
       </c>
       <c r="U10">
-        <v>690.85</v>
+        <v>20.658999999999999</v>
       </c>
       <c r="V10">
-        <v>207.07599999999999</v>
+        <v>18.591999999999999</v>
       </c>
       <c r="W10">
-        <v>-33.737000000000002</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-57.850999999999999</v>
+        <v>1.631</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-84.308000000000007</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>140.36199999999999</v>
+        <v>22.481999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>153.00700000000001</v>
+        <v>23.312999999999999</v>
       </c>
       <c r="D11">
-        <v>1079.8050000000001</v>
+        <v>277.774</v>
       </c>
       <c r="E11">
-        <v>861.59799999999996</v>
+        <v>149.00299999999999</v>
       </c>
       <c r="F11">
-        <v>337.892</v>
+        <v>95.120999999999995</v>
       </c>
       <c r="G11">
-        <v>2725.6709999999998</v>
+        <v>422.5</v>
       </c>
       <c r="H11">
-        <v>5213.9610000000002</v>
+        <v>1126.308</v>
       </c>
       <c r="I11">
-        <v>445.517</v>
+        <v>89.572999999999993</v>
       </c>
       <c r="J11">
-        <v>1596.05</v>
+        <v>566.80600000000004</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-119.215</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>815.01400000000001</v>
+        <v>255.88200000000001</v>
       </c>
       <c r="O11">
-        <v>2696.8939999999998</v>
+        <v>933.84199999999998</v>
       </c>
       <c r="P11">
-        <v>1688.24</v>
+        <v>649.24300000000005</v>
       </c>
       <c r="Q11">
-        <v>44.143000000000001</v>
+        <v>11.483000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2517.067</v>
+        <v>192.46600000000001</v>
       </c>
       <c r="U11">
-        <v>734.99300000000005</v>
+        <v>32.142000000000003</v>
       </c>
       <c r="V11">
-        <v>180.25399999999999</v>
+        <v>35.781999999999996</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-65.06</v>
+        <v>-2.024</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-35.256</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>153.00700000000001</v>
+        <v>23.312999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>153.988</v>
+        <v>19.478999999999999</v>
       </c>
       <c r="D12">
-        <v>1136.067</v>
+        <v>304.89299999999997</v>
       </c>
       <c r="E12">
-        <v>905.82299999999998</v>
+        <v>158.81700000000001</v>
       </c>
       <c r="F12">
-        <v>359.78800000000001</v>
+        <v>101.693</v>
       </c>
       <c r="G12">
-        <v>2874.47</v>
+        <v>427.54500000000002</v>
       </c>
       <c r="H12">
-        <v>5404.3010000000004</v>
+        <v>1147.662</v>
       </c>
       <c r="I12">
-        <v>447.15899999999999</v>
+        <v>94.426000000000002</v>
       </c>
       <c r="J12">
-        <v>1698.951</v>
+        <v>624.66300000000001</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>815.55899999999997</v>
+        <v>186.108</v>
       </c>
       <c r="O12">
-        <v>2807.0410000000002</v>
+        <v>928.75599999999997</v>
       </c>
       <c r="P12">
-        <v>1782.55</v>
+        <v>634.91800000000001</v>
       </c>
       <c r="Q12">
-        <v>-11.334</v>
+        <v>-9.8140000000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2597.2600000000002</v>
+        <v>218.90600000000001</v>
       </c>
       <c r="U12">
-        <v>723.65899999999999</v>
+        <v>22.327999999999999</v>
       </c>
       <c r="V12">
-        <v>180.55199999999999</v>
+        <v>34.301000000000002</v>
       </c>
       <c r="W12">
-        <v>-16.756</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>22.428000000000001</v>
+        <v>-23.762</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-131.98400000000001</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>153.988</v>
+        <v>19.478999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>160.798</v>
+        <v>28.212</v>
       </c>
       <c r="D13">
-        <v>1153.0619999999999</v>
+        <v>314.798</v>
       </c>
       <c r="E13">
-        <v>926.19399999999996</v>
+        <v>159.55500000000001</v>
       </c>
       <c r="F13">
-        <v>363.84800000000001</v>
+        <v>106.121</v>
       </c>
       <c r="G13">
-        <v>3077.5349999999999</v>
+        <v>420.43099999999998</v>
       </c>
       <c r="H13">
-        <v>5640.6809999999996</v>
+        <v>1143.258</v>
       </c>
       <c r="I13">
-        <v>481.02199999999999</v>
+        <v>101.14</v>
       </c>
       <c r="J13">
-        <v>1784.539</v>
+        <v>573.93299999999999</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>893.20100000000002</v>
+        <v>185.27</v>
       </c>
       <c r="O13">
-        <v>2974.1610000000001</v>
+        <v>866.71600000000001</v>
       </c>
       <c r="P13">
-        <v>1869.5260000000001</v>
+        <v>575.101</v>
       </c>
       <c r="Q13">
-        <v>165.70699999999999</v>
+        <v>-5.3470000000000004</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2666.52</v>
+        <v>276.54199999999997</v>
       </c>
       <c r="U13">
-        <v>889.36599999999999</v>
+        <v>16.981000000000002</v>
       </c>
       <c r="V13">
-        <v>196.91800000000001</v>
+        <v>35.265999999999998</v>
       </c>
       <c r="W13">
-        <v>-16.716000000000001</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-32.698999999999998</v>
+        <v>-27.044</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>24.678000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>160.798</v>
+        <v>28.212</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>167.90700000000001</v>
+        <v>32.985999999999997</v>
       </c>
       <c r="D14">
-        <v>1245.7660000000001</v>
+        <v>342.03899999999999</v>
       </c>
       <c r="E14">
-        <v>1001</v>
+        <v>172.488</v>
       </c>
       <c r="F14">
-        <v>389.27199999999999</v>
+        <v>115.845</v>
       </c>
       <c r="G14">
-        <v>3157.6</v>
+        <v>451.34899999999999</v>
       </c>
       <c r="H14">
-        <v>6168</v>
+        <v>1181.384</v>
       </c>
       <c r="I14">
-        <v>549.9</v>
+        <v>116.83499999999999</v>
       </c>
       <c r="J14">
-        <v>1431.4</v>
+        <v>532.28</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,161 +1888,161 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1609.9</v>
+        <v>217.642</v>
       </c>
       <c r="O14">
-        <v>3287.9</v>
+        <v>857.97799999999995</v>
       </c>
       <c r="P14">
-        <v>2132.8000000000002</v>
+        <v>542.95899999999995</v>
       </c>
       <c r="Q14">
-        <v>-2.516</v>
+        <v>6.5519999999999996</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>44500</v>
+        <v>13900</v>
       </c>
       <c r="T14">
-        <v>2880.1</v>
+        <v>323.40600000000001</v>
       </c>
       <c r="U14">
-        <v>886.8</v>
+        <v>23.533000000000001</v>
       </c>
       <c r="V14">
-        <v>211.376</v>
+        <v>64.655000000000001</v>
       </c>
       <c r="W14">
-        <v>-63.328000000000003</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>183.83099999999999</v>
+        <v>-33.003</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>88.861999999999995</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>167.90700000000001</v>
+        <v>32.985999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>158.5</v>
+        <v>35.658000000000001</v>
       </c>
       <c r="D15">
-        <v>1246.0999999999999</v>
+        <v>355.26100000000002</v>
       </c>
       <c r="E15">
-        <v>971.57600000000002</v>
+        <v>186.49299999999999</v>
       </c>
       <c r="F15">
-        <v>388.9</v>
+        <v>122.03100000000001</v>
       </c>
       <c r="G15">
-        <v>3204.4670000000001</v>
+        <v>474.90199999999999</v>
       </c>
       <c r="H15">
-        <v>6230.2030000000004</v>
+        <v>1200.0519999999999</v>
       </c>
       <c r="I15">
-        <v>479.786</v>
+        <v>117.68300000000001</v>
       </c>
       <c r="J15">
-        <v>1522.57</v>
+        <v>516.54999999999995</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-0.17399999999999999</v>
       </c>
       <c r="M15">
-        <v>-801.1</v>
+        <v>-15</v>
       </c>
       <c r="N15">
-        <v>1556.204</v>
+        <v>213.476</v>
       </c>
       <c r="O15">
-        <v>3334.3409999999999</v>
+        <v>843.08299999999997</v>
       </c>
       <c r="P15">
-        <v>2223.6149999999998</v>
+        <v>527.01499999999999</v>
       </c>
       <c r="Q15">
-        <v>136.5</v>
+        <v>4.8710000000000004</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2895.8620000000001</v>
+        <v>356.96899999999999</v>
       </c>
       <c r="U15">
-        <v>1023.32</v>
+        <v>28.404</v>
       </c>
       <c r="V15">
-        <v>202.7</v>
+        <v>28.146000000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-21</v>
+        <v>-16.123999999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>24.3</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>158.5</v>
+        <v>35.658000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>174.9</v>
+        <v>40.366999999999997</v>
       </c>
       <c r="D16">
-        <v>1314.2</v>
+        <v>387.11900000000003</v>
       </c>
       <c r="E16">
-        <v>1031.0709999999999</v>
+        <v>206.24799999999999</v>
       </c>
       <c r="F16">
-        <v>416.8</v>
+        <v>133.08799999999999</v>
       </c>
       <c r="G16">
-        <v>3462.3850000000002</v>
+        <v>489.78500000000003</v>
       </c>
       <c r="H16">
-        <v>6517.3</v>
+        <v>1213.069</v>
       </c>
       <c r="I16">
-        <v>534.38099999999997</v>
+        <v>126.797</v>
       </c>
       <c r="J16">
-        <v>1542.8910000000001</v>
+        <v>465.43799999999999</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1711.7929999999999</v>
+        <v>234.178</v>
       </c>
       <c r="O16">
-        <v>3518.7109999999998</v>
+        <v>813.17399999999998</v>
       </c>
       <c r="P16">
-        <v>2343.5610000000001</v>
+        <v>476.66800000000001</v>
       </c>
       <c r="Q16">
-        <v>56.8</v>
+        <v>-9.7769999999999992</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2998.5889999999999</v>
+        <v>399.89499999999998</v>
       </c>
       <c r="U16">
-        <v>1080.0830000000001</v>
+        <v>18.626999999999999</v>
       </c>
       <c r="V16">
-        <v>180.6</v>
+        <v>51.776000000000003</v>
       </c>
       <c r="W16">
-        <v>-31.4</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>18.7</v>
+        <v>-48.247999999999998</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-86.9</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>174.9</v>
+        <v>40.366999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>182.2</v>
+        <v>41.646000000000001</v>
       </c>
       <c r="D17">
-        <v>1358.7</v>
+        <v>384.10300000000001</v>
       </c>
       <c r="E17">
-        <v>1092.424</v>
+        <v>199.27099999999999</v>
       </c>
       <c r="F17">
-        <v>431.6</v>
+        <v>133.68600000000001</v>
       </c>
       <c r="G17">
-        <v>3372.5720000000001</v>
+        <v>498.27</v>
       </c>
       <c r="H17">
-        <v>6851.7690000000002</v>
+        <v>1257.702</v>
       </c>
       <c r="I17">
-        <v>599.75400000000002</v>
+        <v>130.935</v>
       </c>
       <c r="J17">
-        <v>2023.1780000000001</v>
+        <v>458.23099999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1555.3969999999999</v>
+        <v>269.88299999999998</v>
       </c>
       <c r="O17">
-        <v>3854.1089999999999</v>
+        <v>825.92899999999997</v>
       </c>
       <c r="P17">
-        <v>2623.9810000000002</v>
+        <v>469.84300000000002</v>
       </c>
       <c r="Q17">
-        <v>-207.1</v>
+        <v>3.8959999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2997.66</v>
+        <v>431.77300000000002</v>
       </c>
       <c r="U17">
-        <v>872.99900000000002</v>
+        <v>22.523</v>
       </c>
       <c r="V17">
-        <v>224.1</v>
+        <v>64.337999999999994</v>
       </c>
       <c r="W17">
-        <v>-70.5</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>94.6</v>
+        <v>-20.954999999999998</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-5.8</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>182.2</v>
+        <v>41.646000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>193.5</v>
+        <v>45.64</v>
       </c>
       <c r="D18">
-        <v>1426.5</v>
+        <v>403.96300000000002</v>
       </c>
       <c r="E18">
-        <v>1123.7</v>
+        <v>214.15799999999999</v>
       </c>
       <c r="F18">
-        <v>456.5</v>
+        <v>141.67599999999999</v>
       </c>
       <c r="G18">
-        <v>3452.2</v>
+        <v>529.01499999999999</v>
       </c>
       <c r="H18">
-        <v>6985.9</v>
+        <v>1306.711</v>
       </c>
       <c r="I18">
-        <v>618.4</v>
+        <v>134.85599999999999</v>
       </c>
       <c r="J18">
-        <v>2654.6</v>
+        <v>432.14400000000001</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1045.5999999999999</v>
+        <v>277.572</v>
       </c>
       <c r="O18">
-        <v>4048</v>
+        <v>825.10699999999997</v>
       </c>
       <c r="P18">
-        <v>2656.2</v>
+        <v>449.053</v>
       </c>
       <c r="Q18">
-        <v>95.9</v>
+        <v>7.649</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>50700</v>
+        <v>16100</v>
       </c>
       <c r="T18">
-        <v>2937.9</v>
+        <v>481.60399999999998</v>
       </c>
       <c r="U18">
-        <v>968.9</v>
+        <v>30.172000000000001</v>
       </c>
       <c r="V18">
-        <v>273.5</v>
+        <v>63.991</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-78.2</v>
+        <v>-30.283000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>193.5</v>
+        <v>45.64</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>179.8</v>
+        <v>46.375999999999998</v>
       </c>
       <c r="D19">
-        <v>1327.1</v>
+        <v>409.39499999999998</v>
       </c>
       <c r="E19">
-        <v>1091.8</v>
+        <v>230.51599999999999</v>
       </c>
       <c r="F19">
-        <v>424.6</v>
+        <v>145.97</v>
       </c>
       <c r="G19">
-        <v>3533.8</v>
+        <v>555.60199999999998</v>
       </c>
       <c r="H19">
-        <v>7025.6</v>
+        <v>1393.1590000000001</v>
       </c>
       <c r="I19">
-        <v>582.9</v>
+        <v>149.12899999999999</v>
       </c>
       <c r="J19">
-        <v>2757</v>
+        <v>458.142</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-86.2</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>925.7</v>
+        <v>285.01600000000002</v>
       </c>
       <c r="O19">
-        <v>4046.4</v>
+        <v>866.14499999999998</v>
       </c>
       <c r="P19">
-        <v>2758.6</v>
+        <v>475.65600000000001</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>-3.915</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2979.2</v>
+        <v>527.01400000000001</v>
       </c>
       <c r="U19">
-        <v>969.9</v>
+        <v>26.257000000000001</v>
       </c>
       <c r="V19">
-        <v>188.3</v>
+        <v>38.595999999999997</v>
       </c>
       <c r="W19">
-        <v>-77.5</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-37.700000000000003</v>
+        <v>23.003</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-20.5</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>179.8</v>
+        <v>46.375999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>179</v>
+        <v>52.055999999999997</v>
       </c>
       <c r="D20">
-        <v>1351.5</v>
+        <v>443.642</v>
       </c>
       <c r="E20">
-        <v>1089.5</v>
+        <v>232.81899999999999</v>
       </c>
       <c r="F20">
-        <v>432.5</v>
+        <v>161.221</v>
       </c>
       <c r="G20">
-        <v>3592.8</v>
+        <v>568.55100000000004</v>
       </c>
       <c r="H20">
-        <v>7228.7</v>
+        <v>1450.914</v>
       </c>
       <c r="I20">
-        <v>559.5</v>
+        <v>150.131</v>
       </c>
       <c r="J20">
-        <v>2759.2</v>
+        <v>458.41199999999998</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>984.7</v>
+        <v>277.55700000000002</v>
       </c>
       <c r="O20">
-        <v>4125.8999999999996</v>
+        <v>868.90599999999995</v>
       </c>
       <c r="P20">
-        <v>2759.6</v>
+        <v>477.40499999999997</v>
       </c>
       <c r="Q20">
-        <v>272.89999999999998</v>
+        <v>-0.79500000000000004</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3102.8</v>
+        <v>582.00800000000004</v>
       </c>
       <c r="U20">
-        <v>1242.8</v>
+        <v>25.462</v>
       </c>
       <c r="V20">
-        <v>234.5</v>
+        <v>49.100999999999999</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>-2.6429999999999998</v>
       </c>
       <c r="X20">
-        <v>-52</v>
+        <v>12.680999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>226.7</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>179</v>
+        <v>52.055999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>204.5</v>
+        <v>52.088999999999999</v>
       </c>
       <c r="D21">
-        <v>1459.6</v>
+        <v>446.995</v>
       </c>
       <c r="E21">
-        <v>1163.3</v>
+        <v>241.047</v>
       </c>
       <c r="F21">
-        <v>464</v>
+        <v>161.57499999999999</v>
       </c>
       <c r="G21">
-        <v>3862.3</v>
+        <v>585.78499999999997</v>
       </c>
       <c r="H21">
-        <v>7485.6</v>
+        <v>1472.94</v>
       </c>
       <c r="I21">
-        <v>661.5</v>
+        <v>149.834</v>
       </c>
       <c r="J21">
-        <v>2853</v>
+        <v>425.67500000000001</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1081.3</v>
+        <v>289.161</v>
       </c>
       <c r="O21">
-        <v>4304.2</v>
+        <v>839.14</v>
       </c>
       <c r="P21">
-        <v>2853.4</v>
+        <v>440.92200000000003</v>
       </c>
       <c r="Q21">
-        <v>332.8</v>
+        <v>12.599</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3181.4</v>
+        <v>633.79999999999995</v>
       </c>
       <c r="U21">
-        <v>1575.6</v>
+        <v>38.061</v>
       </c>
       <c r="V21">
-        <v>285.39999999999998</v>
+        <v>67.123000000000005</v>
       </c>
       <c r="W21">
-        <v>-38.6</v>
+        <v>-2.7050000000000001</v>
       </c>
       <c r="X21">
-        <v>7.2</v>
+        <v>-36.500999999999998</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>131.4</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>204.5</v>
+        <v>52.088999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>200.2</v>
+        <v>55.817999999999998</v>
       </c>
       <c r="D22">
-        <v>1430.5</v>
+        <v>508.11500000000001</v>
       </c>
       <c r="E22">
-        <v>1104.5999999999999</v>
+        <v>302.86700000000002</v>
       </c>
       <c r="F22">
-        <v>458.4</v>
+        <v>131.68799999999999</v>
       </c>
       <c r="G22">
-        <v>3850</v>
+        <v>709.81399999999996</v>
       </c>
       <c r="H22">
-        <v>7458.4</v>
+        <v>1932.54</v>
       </c>
       <c r="I22">
-        <v>587.79999999999995</v>
+        <v>177.26599999999999</v>
       </c>
       <c r="J22">
-        <v>2813.2</v>
+        <v>765.97</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,161 +2552,161 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1008.4</v>
+        <v>335.93</v>
       </c>
       <c r="O22">
-        <v>4180</v>
+        <v>1243.3050000000001</v>
       </c>
       <c r="P22">
-        <v>2813.5</v>
+        <v>781</v>
       </c>
       <c r="Q22">
-        <v>161.6</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>50700</v>
+        <v>22700</v>
       </c>
       <c r="T22">
-        <v>3278.4</v>
+        <v>689.23500000000001</v>
       </c>
       <c r="U22">
-        <v>1737.2</v>
+        <v>38.668999999999997</v>
       </c>
       <c r="V22">
-        <v>322.3</v>
+        <v>74.804000000000002</v>
       </c>
       <c r="W22">
-        <v>-43.2</v>
+        <v>-2.6859999999999999</v>
       </c>
       <c r="X22">
-        <v>-97.6</v>
+        <v>349.11799999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-1.7</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>200.2</v>
+        <v>55.817999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>156.6</v>
+        <v>57.274000000000001</v>
       </c>
       <c r="D23">
-        <v>1451.2</v>
+        <v>568.99099999999999</v>
       </c>
       <c r="E23">
-        <v>1201.9000000000001</v>
+        <v>335.10399999999998</v>
       </c>
       <c r="F23">
-        <v>459.2</v>
+        <v>179.815</v>
       </c>
       <c r="G23">
-        <v>2989.6</v>
+        <v>770.79499999999996</v>
       </c>
       <c r="H23">
-        <v>7890</v>
+        <v>2008.9380000000001</v>
       </c>
       <c r="I23">
-        <v>615.4</v>
+        <v>196.626</v>
       </c>
       <c r="J23">
-        <v>2866.2</v>
+        <v>741.40800000000002</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-24.032</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1069.5999999999999</v>
+        <v>370.61399999999998</v>
       </c>
       <c r="O23">
-        <v>4465.8</v>
+        <v>1249.67</v>
       </c>
       <c r="P23">
-        <v>2866.5</v>
+        <v>757.81700000000001</v>
       </c>
       <c r="Q23">
-        <v>-1050.2</v>
+        <v>-1.365</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3424.2</v>
+        <v>759.26800000000003</v>
       </c>
       <c r="U23">
-        <v>687</v>
+        <v>37.304000000000002</v>
       </c>
       <c r="V23">
-        <v>194.2</v>
+        <v>55.902999999999999</v>
       </c>
       <c r="W23">
-        <v>-43.2</v>
+        <v>-2.6789999999999998</v>
       </c>
       <c r="X23">
-        <v>-29.8</v>
+        <v>-21.425999999999998</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>156.6</v>
+        <v>57.274000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>206.6</v>
+        <v>53.341000000000001</v>
       </c>
       <c r="D24">
-        <v>1548.2</v>
+        <v>606.59799999999996</v>
       </c>
       <c r="E24">
-        <v>1257.3</v>
+        <v>336.86599999999999</v>
       </c>
       <c r="F24">
-        <v>497.3</v>
+        <v>192.7</v>
       </c>
       <c r="G24">
-        <v>3158.1</v>
+        <v>809.49900000000002</v>
       </c>
       <c r="H24">
-        <v>8027</v>
+        <v>2051.5360000000001</v>
       </c>
       <c r="I24">
-        <v>645.1</v>
+        <v>215.11799999999999</v>
       </c>
       <c r="J24">
-        <v>2834.6</v>
+        <v>695.87099999999998</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1100</v>
+        <v>395.82499999999999</v>
       </c>
       <c r="O24">
-        <v>4453.1000000000004</v>
+        <v>1242.1659999999999</v>
       </c>
       <c r="P24">
-        <v>2834.9</v>
+        <v>706.80399999999997</v>
       </c>
       <c r="Q24">
-        <v>107</v>
+        <v>8.6159999999999997</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3573.9</v>
+        <v>809.37</v>
       </c>
       <c r="U24">
-        <v>794</v>
+        <v>45.92</v>
       </c>
       <c r="V24">
-        <v>243.6</v>
+        <v>87.072000000000003</v>
       </c>
       <c r="W24">
-        <v>-43.1</v>
+        <v>-2.6850000000000001</v>
       </c>
       <c r="X24">
-        <v>-69.599999999999994</v>
+        <v>-67.363</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-4.8</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>206.5</v>
+        <v>53.341000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>224.3</v>
+        <v>66.698999999999998</v>
       </c>
       <c r="D25">
-        <v>1635.9</v>
+        <v>636.41800000000001</v>
       </c>
       <c r="E25">
-        <v>1319.4</v>
+        <v>369.58</v>
       </c>
       <c r="F25">
-        <v>537.29999999999995</v>
+        <v>201.73400000000001</v>
       </c>
       <c r="G25">
-        <v>3405.2</v>
+        <v>882.93600000000004</v>
       </c>
       <c r="H25">
-        <v>8369.7999999999993</v>
+        <v>2121.6350000000002</v>
       </c>
       <c r="I25">
-        <v>650.70000000000005</v>
+        <v>243.85</v>
       </c>
       <c r="J25">
-        <v>2598</v>
+        <v>684.68100000000004</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1513.5</v>
+        <v>432.22800000000001</v>
       </c>
       <c r="O25">
-        <v>4615.1000000000004</v>
+        <v>1257.818</v>
       </c>
       <c r="P25">
-        <v>2972.5</v>
+        <v>688.52300000000002</v>
       </c>
       <c r="Q25">
-        <v>59.6</v>
+        <v>16.843</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3754.7</v>
+        <v>863.81700000000001</v>
       </c>
       <c r="U25">
-        <v>853.6</v>
+        <v>62.762999999999998</v>
       </c>
       <c r="V25">
-        <v>290.89999999999998</v>
+        <v>71.013999999999996</v>
       </c>
       <c r="W25">
-        <v>-43.1</v>
+        <v>-2.681</v>
       </c>
       <c r="X25">
-        <v>31.4</v>
+        <v>-29.106000000000002</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-132.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>224.3</v>
+        <v>66.698999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>235.4</v>
+        <v>78.376999999999995</v>
       </c>
       <c r="D26">
-        <v>1651.1</v>
+        <v>659.423</v>
       </c>
       <c r="E26">
-        <v>1349.3</v>
+        <v>383.858</v>
       </c>
       <c r="F26">
-        <v>546</v>
+        <v>213.93100000000001</v>
       </c>
       <c r="G26">
-        <v>3591.2</v>
+        <v>934.60500000000002</v>
       </c>
       <c r="H26">
-        <v>8498.7000000000007</v>
+        <v>2195.3969999999999</v>
       </c>
       <c r="I26">
-        <v>678.2</v>
+        <v>234.86799999999999</v>
       </c>
       <c r="J26">
-        <v>2635.5</v>
+        <v>677.173</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1635.2</v>
+        <v>447.65899999999999</v>
       </c>
       <c r="O26">
-        <v>4775.6000000000004</v>
+        <v>1273.722</v>
       </c>
       <c r="P26">
-        <v>3010.7</v>
+        <v>680.41399999999999</v>
       </c>
       <c r="Q26">
-        <v>181</v>
+        <v>11.372</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>62000</v>
+        <v>25600</v>
       </c>
       <c r="T26">
-        <v>3723.1</v>
+        <v>921.67499999999995</v>
       </c>
       <c r="U26">
-        <v>1034.5999999999999</v>
+        <v>74.135000000000005</v>
       </c>
       <c r="V26">
-        <v>348.9</v>
+        <v>75.608000000000004</v>
       </c>
       <c r="W26">
-        <v>-43.3</v>
+        <v>-2.6789999999999998</v>
       </c>
       <c r="X26">
-        <v>-65.5</v>
+        <v>-37.262999999999998</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>16.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>235.4</v>
+        <v>78.376999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>224.9</v>
+        <v>77.703999999999994</v>
       </c>
       <c r="D27">
-        <v>1560.1</v>
+        <v>651.08399999999995</v>
       </c>
       <c r="E27">
-        <v>1318.3</v>
+        <v>392.529</v>
       </c>
       <c r="F27">
-        <v>515.9</v>
+        <v>210.56800000000001</v>
       </c>
       <c r="G27">
-        <v>3722.4</v>
+        <v>971.43200000000002</v>
       </c>
       <c r="H27">
-        <v>8707.4</v>
+        <v>2244.7370000000001</v>
       </c>
       <c r="I27">
-        <v>682.4</v>
+        <v>217.911</v>
       </c>
       <c r="J27">
-        <v>2862.1</v>
+        <v>685.279</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1583.3</v>
+        <v>385.88799999999998</v>
       </c>
       <c r="O27">
-        <v>4956.3</v>
+        <v>1270.4849999999999</v>
       </c>
       <c r="P27">
-        <v>3237.2</v>
+        <v>687.98099999999999</v>
       </c>
       <c r="Q27">
-        <v>208.3</v>
+        <v>10.954000000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3751.1</v>
+        <v>974.25199999999995</v>
       </c>
       <c r="U27">
-        <v>1242.9000000000001</v>
+        <v>85.088999999999999</v>
       </c>
       <c r="V27">
-        <v>237.8</v>
+        <v>62.463000000000001</v>
       </c>
       <c r="W27">
-        <v>-49.3</v>
+        <v>-2.6840000000000002</v>
       </c>
       <c r="X27">
-        <v>-53.7</v>
+        <v>-4.532</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>103.9</v>
+        <v>-2.0070000000000001</v>
       </c>
       <c r="AA27">
-        <v>224.9</v>
+        <v>77.703999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>251.5</v>
+        <v>83.995999999999995</v>
       </c>
       <c r="D28">
-        <v>1666.5</v>
+        <v>688.83600000000001</v>
       </c>
       <c r="E28">
-        <v>1407.3</v>
+        <v>427.89800000000002</v>
       </c>
       <c r="F28">
-        <v>552.6</v>
+        <v>225.624</v>
       </c>
       <c r="G28">
-        <v>3992.4</v>
+        <v>1041.5450000000001</v>
       </c>
       <c r="H28">
-        <v>9172.9</v>
+        <v>2332.5340000000001</v>
       </c>
       <c r="I28">
-        <v>769.9</v>
+        <v>232.358</v>
       </c>
       <c r="J28">
-        <v>3020.6</v>
+        <v>683.80200000000002</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1713.9</v>
+        <v>386.911</v>
       </c>
       <c r="O28">
-        <v>5257</v>
+        <v>1272.9780000000001</v>
       </c>
       <c r="P28">
-        <v>3396.6</v>
+        <v>685.97199999999998</v>
       </c>
       <c r="Q28">
-        <v>74</v>
+        <v>25.579000000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3915.9</v>
+        <v>1059.556</v>
       </c>
       <c r="U28">
-        <v>1316.9</v>
+        <v>110.66800000000001</v>
       </c>
       <c r="V28">
-        <v>280.39999999999998</v>
+        <v>83.215000000000003</v>
       </c>
       <c r="W28">
-        <v>-48.9</v>
+        <v>-2.6720000000000002</v>
       </c>
       <c r="X28">
-        <v>-11</v>
+        <v>-11.894</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-5.9</v>
+        <v>-2.2010000000000001</v>
       </c>
       <c r="AA28">
-        <v>251.5</v>
+        <v>83.995999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>277.5</v>
+        <v>91.501000000000005</v>
       </c>
       <c r="D29">
-        <v>1840.8</v>
+        <v>733.851</v>
       </c>
       <c r="E29">
-        <v>1575.5</v>
+        <v>473.07</v>
       </c>
       <c r="F29">
-        <v>606.1</v>
+        <v>239.142</v>
       </c>
       <c r="G29">
-        <v>4352.8999999999996</v>
+        <v>1165.3530000000001</v>
       </c>
       <c r="H29">
-        <v>9608.7999999999993</v>
+        <v>2490.192</v>
       </c>
       <c r="I29">
-        <v>826.8</v>
+        <v>273.55900000000003</v>
       </c>
       <c r="J29">
-        <v>3559.7</v>
+        <v>715.49199999999996</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1433.7</v>
+        <v>448.39499999999998</v>
       </c>
       <c r="O29">
-        <v>5499.5</v>
+        <v>1355.201</v>
       </c>
       <c r="P29">
-        <v>3560.8</v>
+        <v>716.95399999999995</v>
       </c>
       <c r="Q29">
-        <v>135.30000000000001</v>
+        <v>53.918999999999997</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>4109.3</v>
+        <v>1134.991</v>
       </c>
       <c r="U29">
-        <v>1452.2</v>
+        <v>164.58699999999999</v>
       </c>
       <c r="V29">
-        <v>198.2</v>
+        <v>109.19799999999999</v>
       </c>
       <c r="W29">
-        <v>-48.9</v>
+        <v>-2.68</v>
       </c>
       <c r="X29">
-        <v>17</v>
+        <v>1.8009999999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>6.3</v>
+        <v>-0.42599999999999999</v>
       </c>
       <c r="AA29">
-        <v>277.5</v>
+        <v>91.501000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-103.4</v>
+        <v>99.992999999999995</v>
       </c>
       <c r="D30">
-        <v>1943.9</v>
+        <v>777.27</v>
       </c>
       <c r="E30">
-        <v>1598.6</v>
+        <v>510.411</v>
       </c>
       <c r="F30">
-        <v>635.29999999999995</v>
+        <v>254.80699999999999</v>
       </c>
       <c r="G30">
-        <v>4656</v>
+        <v>1223.808</v>
       </c>
       <c r="H30">
-        <v>10003.9</v>
+        <v>2675.7330000000002</v>
       </c>
       <c r="I30">
-        <v>875.6</v>
+        <v>295.39100000000002</v>
       </c>
       <c r="J30">
-        <v>3541.5</v>
+        <v>721.56100000000004</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,161 +3216,161 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1579.4</v>
+        <v>520.48099999999999</v>
       </c>
       <c r="O30">
-        <v>5960.5</v>
+        <v>1395.9849999999999</v>
       </c>
       <c r="P30">
-        <v>3542.6</v>
+        <v>722.63599999999997</v>
       </c>
       <c r="Q30">
-        <v>266.89999999999998</v>
+        <v>19.053999999999998</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>70000</v>
+        <v>32000</v>
       </c>
       <c r="T30">
-        <v>4043.4</v>
+        <v>1279.748</v>
       </c>
       <c r="U30">
-        <v>1719.1</v>
+        <v>183.64099999999999</v>
       </c>
       <c r="V30">
-        <v>427.8</v>
+        <v>133.023</v>
       </c>
       <c r="W30">
-        <v>-57.9</v>
+        <v>-2.6739999999999999</v>
       </c>
       <c r="X30">
-        <v>-92.4</v>
+        <v>10.183999999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>3.5</v>
+        <v>3.274</v>
       </c>
       <c r="AA30">
-        <v>-103.4</v>
+        <v>99.992999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>265.60000000000002</v>
+        <v>97.468000000000004</v>
       </c>
       <c r="D31">
-        <v>1866.9</v>
+        <v>770.71400000000006</v>
       </c>
       <c r="E31">
-        <v>1515.8</v>
+        <v>507.97899999999998</v>
       </c>
       <c r="F31">
-        <v>606.9</v>
+        <v>250.90600000000001</v>
       </c>
       <c r="G31">
-        <v>3937.1</v>
+        <v>1274.5630000000001</v>
       </c>
       <c r="H31">
-        <v>9403.7000000000007</v>
+        <v>2760.9690000000001</v>
       </c>
       <c r="I31">
-        <v>798.2</v>
+        <v>289.74799999999999</v>
       </c>
       <c r="J31">
-        <v>2489.4</v>
+        <v>852.30700000000002</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-304.8</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>2184.6999999999998</v>
+        <v>491.435</v>
       </c>
       <c r="O31">
-        <v>5435.8</v>
+        <v>1519.165</v>
       </c>
       <c r="P31">
-        <v>3239.3</v>
+        <v>853.06899999999996</v>
       </c>
       <c r="Q31">
-        <v>-718.9</v>
+        <v>-3.4860000000000002</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3967.9</v>
+        <v>1241.8040000000001</v>
       </c>
       <c r="U31">
-        <v>1000.2</v>
+        <v>180.155</v>
       </c>
       <c r="V31">
-        <v>130.19999999999999</v>
+        <v>109.616</v>
       </c>
       <c r="W31">
-        <v>-58.1</v>
+        <v>-2.6819999999999999</v>
       </c>
       <c r="X31">
-        <v>-728.2</v>
+        <v>-18.632000000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>11.3</v>
+        <v>-4.1619999999999999</v>
       </c>
       <c r="AA31">
-        <v>265.60000000000002</v>
+        <v>97.468000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>284.8</v>
+        <v>109.995</v>
       </c>
       <c r="D32">
-        <v>1981.4</v>
+        <v>846.81700000000001</v>
       </c>
       <c r="E32">
-        <v>1627.3</v>
+        <v>555.21100000000001</v>
       </c>
       <c r="F32">
-        <v>644.79999999999995</v>
+        <v>276.58999999999997</v>
       </c>
       <c r="G32">
-        <v>4021.4</v>
+        <v>1355.6379999999999</v>
       </c>
       <c r="H32">
-        <v>9510.2999999999993</v>
+        <v>2927.6350000000002</v>
       </c>
       <c r="I32">
-        <v>903.1</v>
+        <v>318.52600000000001</v>
       </c>
       <c r="J32">
-        <v>2668.2</v>
+        <v>819.202</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2340.8000000000002</v>
+        <v>559.28599999999994</v>
       </c>
       <c r="O32">
-        <v>5697.7</v>
+        <v>1552.9259999999999</v>
       </c>
       <c r="P32">
-        <v>3436.6</v>
+        <v>819.75300000000004</v>
       </c>
       <c r="Q32">
-        <v>-35.799999999999997</v>
+        <v>8.6069999999999993</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3812.6</v>
+        <v>1374.7090000000001</v>
       </c>
       <c r="U32">
-        <v>964.4</v>
+        <v>188.762</v>
       </c>
       <c r="V32">
-        <v>265.10000000000002</v>
+        <v>96.198999999999998</v>
       </c>
       <c r="W32">
-        <v>-57.4</v>
+        <v>-2.6349999999999998</v>
       </c>
       <c r="X32">
-        <v>-117.7</v>
+        <v>-22.338000000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-3</v>
+        <v>-4.3890000000000002</v>
       </c>
       <c r="AA32">
-        <v>284.8</v>
+        <v>109.995</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>316.5</v>
+        <v>112.955</v>
       </c>
       <c r="D33">
-        <v>2129</v>
+        <v>863.65800000000002</v>
       </c>
       <c r="E33">
-        <v>1737.6</v>
+        <v>583.66300000000001</v>
       </c>
       <c r="F33">
-        <v>688.2</v>
+        <v>281.25099999999998</v>
       </c>
       <c r="G33">
-        <v>4281.5</v>
+        <v>1431.627</v>
       </c>
       <c r="H33">
-        <v>9742.6</v>
+        <v>3018.2379999999998</v>
       </c>
       <c r="I33">
-        <v>1014</v>
+        <v>345.19299999999998</v>
       </c>
       <c r="J33">
-        <v>2468.3000000000002</v>
+        <v>770.05</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2543.1999999999998</v>
+        <v>614.822</v>
       </c>
       <c r="O33">
-        <v>5689.3</v>
+        <v>1531.998</v>
       </c>
       <c r="P33">
-        <v>3258.5</v>
+        <v>770.53099999999995</v>
       </c>
       <c r="Q33">
-        <v>33.9</v>
+        <v>41.978999999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>4053.3</v>
+        <v>1486.24</v>
       </c>
       <c r="U33">
-        <v>998.3</v>
+        <v>230.74100000000001</v>
       </c>
       <c r="V33">
-        <v>339.2</v>
+        <v>104.869</v>
       </c>
       <c r="W33">
-        <v>-68.900000000000006</v>
+        <v>-5.3</v>
       </c>
       <c r="X33">
-        <v>-222.7</v>
+        <v>-19.053000000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>4.7</v>
+        <v>-5.4450000000000003</v>
       </c>
       <c r="AA33">
-        <v>316.60000000000002</v>
+        <v>112.955</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>338.1</v>
+        <v>98.733000000000004</v>
       </c>
       <c r="D34">
-        <v>2224.6999999999998</v>
+        <v>755.28200000000004</v>
       </c>
       <c r="E34">
-        <v>1791.8</v>
+        <v>515.99900000000002</v>
       </c>
       <c r="F34">
-        <v>715</v>
+        <v>240.40600000000001</v>
       </c>
       <c r="G34">
-        <v>4571.6000000000004</v>
+        <v>1335.864</v>
       </c>
       <c r="H34">
-        <v>10044.9</v>
+        <v>2994.1590000000001</v>
       </c>
       <c r="I34">
-        <v>890.5</v>
+        <v>305.95</v>
       </c>
       <c r="J34">
-        <v>2806.4</v>
+        <v>798.92399999999998</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2451.3000000000002</v>
+        <v>634.83199999999999</v>
       </c>
       <c r="O34">
-        <v>5980.7</v>
+        <v>1625.59</v>
       </c>
       <c r="P34">
-        <v>3570.7</v>
+        <v>811.41600000000005</v>
       </c>
       <c r="Q34">
-        <v>281</v>
+        <v>-15.754</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>73600</v>
+        <v>30000</v>
       </c>
       <c r="T34">
-        <v>4064.2</v>
+        <v>1368.569</v>
       </c>
       <c r="U34">
-        <v>1279.3</v>
+        <v>214.98699999999999</v>
       </c>
       <c r="V34">
-        <v>378.2</v>
+        <v>170.839</v>
       </c>
       <c r="W34">
-        <v>-69.3</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-1.5</v>
+        <v>-133.917</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>9.6999999999999993</v>
+        <v>11.058</v>
       </c>
       <c r="AA34">
-        <v>338.1</v>
+        <v>98.733000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>267.5</v>
+        <v>74.41</v>
       </c>
       <c r="D35">
-        <v>1958.5</v>
+        <v>660.01199999999994</v>
       </c>
       <c r="E35">
-        <v>1661.9</v>
+        <v>459.46300000000002</v>
       </c>
       <c r="F35">
-        <v>627.79999999999995</v>
+        <v>206.37899999999999</v>
       </c>
       <c r="G35">
-        <v>4127.5</v>
+        <v>1177.83</v>
       </c>
       <c r="H35">
-        <v>10208.1</v>
+        <v>2959.6610000000001</v>
       </c>
       <c r="I35">
-        <v>797.1</v>
+        <v>257.19600000000003</v>
       </c>
       <c r="J35">
-        <v>3554.8</v>
+        <v>882.56899999999996</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-757.2</v>
+        <v>-182.7</v>
       </c>
       <c r="N35">
-        <v>1649.2</v>
+        <v>469.87400000000002</v>
       </c>
       <c r="O35">
-        <v>6037.7</v>
+        <v>1540.548</v>
       </c>
       <c r="P35">
-        <v>3740.9</v>
+        <v>892.53200000000004</v>
       </c>
       <c r="Q35">
-        <v>-309.60000000000002</v>
+        <v>-64.468000000000004</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>4170.3999999999996</v>
+        <v>1419.1130000000001</v>
       </c>
       <c r="U35">
-        <v>969.7</v>
+        <v>150.51900000000001</v>
       </c>
       <c r="V35">
-        <v>343.6</v>
+        <v>142.76499999999999</v>
       </c>
       <c r="W35">
-        <v>-68.7</v>
+        <v>-5.1349999999999998</v>
       </c>
       <c r="X35">
-        <v>-181.6</v>
+        <v>81.082999999999998</v>
       </c>
       <c r="Y35">
-        <v>117.4</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-5.6</v>
+        <v>1.42</v>
       </c>
       <c r="AA35">
-        <v>267.5</v>
+        <v>74.41</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>288.5</v>
+        <v>74.87</v>
       </c>
       <c r="D36">
-        <v>2015.3</v>
+        <v>685.18399999999997</v>
       </c>
       <c r="E36">
-        <v>1685</v>
+        <v>445.07299999999998</v>
       </c>
       <c r="F36">
-        <v>647.6</v>
+        <v>214.15</v>
       </c>
       <c r="G36">
-        <v>4222.1000000000004</v>
+        <v>1206.941</v>
       </c>
       <c r="H36">
-        <v>10634</v>
+        <v>2999.5169999999998</v>
       </c>
       <c r="I36">
-        <v>814.6</v>
+        <v>247.39099999999999</v>
       </c>
       <c r="J36">
-        <v>3569.4</v>
+        <v>830.74199999999996</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2052.9</v>
+        <v>437.59500000000003</v>
       </c>
       <c r="O36">
-        <v>6430.8</v>
+        <v>1470.789</v>
       </c>
       <c r="P36">
-        <v>4152.8</v>
+        <v>838.21900000000005</v>
       </c>
       <c r="Q36">
-        <v>12.6</v>
+        <v>70.245999999999995</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>4203.2</v>
+        <v>1528.7280000000001</v>
       </c>
       <c r="U36">
-        <v>982.3</v>
+        <v>220.76499999999999</v>
       </c>
       <c r="V36">
-        <v>322.39999999999998</v>
+        <v>141.876</v>
       </c>
       <c r="W36">
-        <v>-68.5</v>
+        <v>-2.5710000000000002</v>
       </c>
       <c r="X36">
-        <v>126.6</v>
+        <v>-49.796999999999997</v>
       </c>
       <c r="Y36">
-        <v>121.7</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>3.1</v>
+        <v>-2.0129999999999999</v>
       </c>
       <c r="AA36">
-        <v>288.39999999999998</v>
+        <v>74.87</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>280.3</v>
+        <v>80.915000000000006</v>
       </c>
       <c r="D37">
-        <v>2100.6</v>
+        <v>716.57299999999998</v>
       </c>
       <c r="E37">
-        <v>1689.1</v>
+        <v>465.52100000000002</v>
       </c>
       <c r="F37">
-        <v>661.9</v>
+        <v>224.393</v>
       </c>
       <c r="G37">
-        <v>4232.2</v>
+        <v>1337.75</v>
       </c>
       <c r="H37">
-        <v>10683.6</v>
+        <v>3140.9110000000001</v>
       </c>
       <c r="I37">
-        <v>830.7</v>
+        <v>283.08800000000002</v>
       </c>
       <c r="J37">
-        <v>3545.4</v>
+        <v>792.01099999999997</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2122.6</v>
+        <v>497.33699999999999</v>
       </c>
       <c r="O37">
-        <v>6472.5</v>
+        <v>1497.7139999999999</v>
       </c>
       <c r="P37">
-        <v>4135.6000000000004</v>
+        <v>804.303</v>
       </c>
       <c r="Q37">
-        <v>-13</v>
+        <v>86.804000000000002</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>4211.1000000000004</v>
+        <v>1643.1969999999999</v>
       </c>
       <c r="U37">
-        <v>969.3</v>
+        <v>307.56900000000002</v>
       </c>
       <c r="V37">
-        <v>412.2</v>
+        <v>145.94200000000001</v>
       </c>
       <c r="W37">
-        <v>-68.3</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-191.4</v>
+        <v>-32.856000000000002</v>
       </c>
       <c r="Y37">
-        <v>132.9</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-1.4</v>
+        <v>-13.521000000000001</v>
       </c>
       <c r="AA37">
-        <v>280.3</v>
+        <v>80.915000000000006</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>318.7</v>
+        <v>87.638999999999996</v>
       </c>
       <c r="D38">
-        <v>2151</v>
+        <v>758.29600000000005</v>
       </c>
       <c r="E38">
-        <v>1736.4</v>
+        <v>449.59100000000001</v>
       </c>
       <c r="F38">
-        <v>678.7</v>
+        <v>241.63200000000001</v>
       </c>
       <c r="G38">
-        <v>4211.2</v>
+        <v>1420.395</v>
       </c>
       <c r="H38">
-        <v>10815.5</v>
+        <v>3219.1840000000002</v>
       </c>
       <c r="I38">
-        <v>866.8</v>
+        <v>292.12200000000001</v>
       </c>
       <c r="J38">
-        <v>3203.4</v>
+        <v>753.05</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,161 +3880,161 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2132.6999999999998</v>
+        <v>503.15899999999999</v>
       </c>
       <c r="O38">
-        <v>6219.3</v>
+        <v>1456.366</v>
       </c>
       <c r="P38">
-        <v>3806.1</v>
+        <v>757.11300000000006</v>
       </c>
       <c r="Q38">
-        <v>-78.099999999999994</v>
+        <v>77.043999999999997</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>74000</v>
+        <v>32200</v>
       </c>
       <c r="T38">
-        <v>4596.2</v>
+        <v>1762.818</v>
       </c>
       <c r="U38">
-        <v>891.2</v>
+        <v>384.613</v>
       </c>
       <c r="V38">
-        <v>424.1</v>
+        <v>151.714</v>
       </c>
       <c r="W38">
-        <v>-74</v>
+        <v>-2.573</v>
       </c>
       <c r="X38">
-        <v>-402</v>
+        <v>-32.752000000000002</v>
       </c>
       <c r="Y38">
-        <v>145.4</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0.1</v>
+        <v>-19.228000000000002</v>
       </c>
       <c r="AA38">
-        <v>318.7</v>
+        <v>87.638999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>242.1</v>
+        <v>98.352999999999994</v>
       </c>
       <c r="D39">
-        <v>1862</v>
+        <v>770.95399999999995</v>
       </c>
       <c r="E39">
-        <v>1540.5</v>
+        <v>572.61599999999999</v>
       </c>
       <c r="F39">
-        <v>559.79999999999995</v>
+        <v>249.19200000000001</v>
       </c>
       <c r="G39">
-        <v>5517.5</v>
+        <v>1616.345</v>
       </c>
       <c r="H39">
-        <v>12077.7</v>
+        <v>3410.5160000000001</v>
       </c>
       <c r="I39">
-        <v>817.2</v>
+        <v>319.82</v>
       </c>
       <c r="J39">
-        <v>4591.5</v>
+        <v>752.54300000000001</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>49.44</v>
       </c>
       <c r="L39">
-        <v>-250.4</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-215.3</v>
+        <v>-19.994</v>
       </c>
       <c r="N39">
-        <v>2170.1999999999998</v>
+        <v>592.88099999999997</v>
       </c>
       <c r="O39">
-        <v>7632</v>
+        <v>1543.075</v>
       </c>
       <c r="P39">
-        <v>5092.3999999999996</v>
+        <v>804.04</v>
       </c>
       <c r="Q39">
-        <v>1481.1</v>
+        <v>47.106000000000002</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>4445.7</v>
+        <v>1867.441</v>
       </c>
       <c r="U39">
-        <v>2372.3000000000002</v>
+        <v>431.71899999999999</v>
       </c>
       <c r="V39">
-        <v>384.3</v>
+        <v>31.843</v>
       </c>
       <c r="W39">
-        <v>-74.400000000000006</v>
+        <v>-2.5950000000000002</v>
       </c>
       <c r="X39">
-        <v>1187.4000000000001</v>
+        <v>48.72</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>5.7</v>
+        <v>-8.3529999999999998</v>
       </c>
       <c r="AA39">
-        <v>242.1</v>
+        <v>98.352999999999994</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>257.7</v>
+        <v>129.67099999999999</v>
       </c>
       <c r="D40">
-        <v>1987.5</v>
+        <v>884.798</v>
       </c>
       <c r="E40">
-        <v>1658.3</v>
+        <v>645.59500000000003</v>
       </c>
       <c r="F40">
-        <v>603.79999999999995</v>
+        <v>289.29899999999998</v>
       </c>
       <c r="G40">
-        <v>4618</v>
+        <v>1757.703</v>
       </c>
       <c r="H40">
-        <v>11203.9</v>
+        <v>3556.768</v>
       </c>
       <c r="I40">
-        <v>928</v>
+        <v>377.61799999999999</v>
       </c>
       <c r="J40">
-        <v>3763.8</v>
+        <v>781.60400000000004</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1785.2</v>
+        <v>596.91600000000005</v>
       </c>
       <c r="O40">
-        <v>6403.6</v>
+        <v>1575.752</v>
       </c>
       <c r="P40">
-        <v>3766.1</v>
+        <v>782.34400000000005</v>
       </c>
       <c r="Q40">
-        <v>-1084</v>
+        <v>4.9580000000000002</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>4800.3</v>
+        <v>1981.0160000000001</v>
       </c>
       <c r="U40">
-        <v>1288.3</v>
+        <v>436.67700000000002</v>
       </c>
       <c r="V40">
-        <v>368.1</v>
+        <v>104.02800000000001</v>
       </c>
       <c r="W40">
-        <v>-74</v>
+        <v>-2.6019999999999999</v>
       </c>
       <c r="X40">
-        <v>-1378.8</v>
+        <v>-18.826000000000001</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>-14.5</v>
+        <v>-36.238</v>
       </c>
       <c r="AA40">
-        <v>257.7</v>
+        <v>129.67099999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>346.6</v>
+        <v>137.268</v>
       </c>
       <c r="D41">
-        <v>2323.4</v>
+        <v>948.46299999999997</v>
       </c>
       <c r="E41">
-        <v>1880.3</v>
+        <v>727.45799999999997</v>
       </c>
       <c r="F41">
-        <v>734.9</v>
+        <v>309.71699999999998</v>
       </c>
       <c r="G41">
-        <v>5037</v>
+        <v>1957.6759999999999</v>
       </c>
       <c r="H41">
-        <v>11753.9</v>
+        <v>3968.7710000000002</v>
       </c>
       <c r="I41">
-        <v>1075.9000000000001</v>
+        <v>395.99900000000002</v>
       </c>
       <c r="J41">
-        <v>3586</v>
+        <v>904.03099999999995</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2215</v>
+        <v>687.149</v>
       </c>
       <c r="O41">
-        <v>6648.7</v>
+        <v>1798.6079999999999</v>
       </c>
       <c r="P41">
-        <v>3815.2</v>
+        <v>904.41600000000005</v>
       </c>
       <c r="Q41">
-        <v>132.19999999999999</v>
+        <v>43.850999999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>5105.2</v>
+        <v>2170.163</v>
       </c>
       <c r="U41">
-        <v>1420.5</v>
+        <v>480.52800000000002</v>
       </c>
       <c r="V41">
-        <v>398.6</v>
+        <v>128.34</v>
       </c>
       <c r="W41">
-        <v>-74.599999999999994</v>
+        <v>-2.6040000000000001</v>
       </c>
       <c r="X41">
-        <v>-192.8</v>
+        <v>107.49</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-9.4</v>
+        <v>-24.529</v>
       </c>
       <c r="AA41">
-        <v>346.6</v>
+        <v>137.268</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>131.113</v>
+      </c>
+      <c r="D42">
+        <v>949.88599999999997</v>
+      </c>
+      <c r="E42">
+        <v>718.54499999999996</v>
+      </c>
+      <c r="F42">
+        <v>310.02</v>
+      </c>
+      <c r="G42">
+        <v>1992.13</v>
+      </c>
+      <c r="H42">
+        <v>4015.857</v>
+      </c>
+      <c r="I42">
+        <v>384.96300000000002</v>
+      </c>
+      <c r="J42">
+        <v>799.64</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>654.99</v>
+      </c>
+      <c r="O42">
+        <v>1673.1420000000001</v>
+      </c>
+      <c r="P42">
+        <v>799.99199999999996</v>
+      </c>
+      <c r="Q42">
+        <v>45.36</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>39100</v>
+      </c>
+      <c r="T42">
+        <v>2342.7150000000001</v>
+      </c>
+      <c r="U42">
+        <v>525.88800000000003</v>
+      </c>
+      <c r="V42">
+        <v>160.68199999999999</v>
+      </c>
+      <c r="W42">
+        <v>-2.6120000000000001</v>
+      </c>
+      <c r="X42">
+        <v>-72.662999999999997</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>8.9039999999999999</v>
+      </c>
+      <c r="AA42">
+        <v>131.113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>127.958</v>
+      </c>
+      <c r="D43">
+        <v>940.58500000000004</v>
+      </c>
+      <c r="E43">
+        <v>744.20299999999997</v>
+      </c>
+      <c r="F43">
+        <v>304.12400000000002</v>
+      </c>
+      <c r="G43">
+        <v>2145.8939999999998</v>
+      </c>
+      <c r="H43">
+        <v>4171.2330000000002</v>
+      </c>
+      <c r="I43">
+        <v>414.29599999999999</v>
+      </c>
+      <c r="J43">
+        <v>949.38499999999999</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-62.7</v>
+      </c>
+      <c r="N43">
+        <v>682.42700000000002</v>
+      </c>
+      <c r="O43">
+        <v>1844.7539999999999</v>
+      </c>
+      <c r="P43">
+        <v>949.71400000000006</v>
+      </c>
+      <c r="Q43">
+        <v>67.111000000000004</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2326.4789999999998</v>
+      </c>
+      <c r="U43">
+        <v>592.99900000000002</v>
+      </c>
+      <c r="V43">
+        <v>107.738</v>
+      </c>
+      <c r="W43">
+        <v>-2.633</v>
+      </c>
+      <c r="X43">
+        <v>-25.515999999999998</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="AA43">
+        <v>127.958</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>147.751</v>
+      </c>
+      <c r="D44">
+        <v>1017.7380000000001</v>
+      </c>
+      <c r="E44">
+        <v>793.41800000000001</v>
+      </c>
+      <c r="F44">
+        <v>321.22199999999998</v>
+      </c>
+      <c r="G44">
+        <v>2246.6799999999998</v>
+      </c>
+      <c r="H44">
+        <v>4322.7349999999997</v>
+      </c>
+      <c r="I44">
+        <v>426.18400000000003</v>
+      </c>
+      <c r="J44">
+        <v>1157.5889999999999</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>648.37800000000004</v>
+      </c>
+      <c r="O44">
+        <v>2013.3309999999999</v>
+      </c>
+      <c r="P44">
+        <v>1157.9169999999999</v>
+      </c>
+      <c r="Q44">
+        <v>18.209</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2309.404</v>
+      </c>
+      <c r="U44">
+        <v>611.20799999999997</v>
+      </c>
+      <c r="V44">
+        <v>104.60899999999999</v>
+      </c>
+      <c r="W44">
+        <v>-2.6080000000000001</v>
+      </c>
+      <c r="X44">
+        <v>-30.626999999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>13.074999999999999</v>
+      </c>
+      <c r="AA44">
+        <v>147.751</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>134.62299999999999</v>
+      </c>
+      <c r="D45">
+        <v>1032.7539999999999</v>
+      </c>
+      <c r="E45">
+        <v>803.47699999999998</v>
+      </c>
+      <c r="F45">
+        <v>323.47699999999998</v>
+      </c>
+      <c r="G45">
+        <v>2327.8119999999999</v>
+      </c>
+      <c r="H45">
+        <v>4361.7960000000003</v>
+      </c>
+      <c r="I45">
+        <v>418.20100000000002</v>
+      </c>
+      <c r="J45">
+        <v>1265.0260000000001</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>662.20299999999997</v>
+      </c>
+      <c r="O45">
+        <v>2132.2469999999998</v>
+      </c>
+      <c r="P45">
+        <v>1265.33</v>
+      </c>
+      <c r="Q45">
+        <v>78.971000000000004</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2229.549</v>
+      </c>
+      <c r="U45">
+        <v>690.17899999999997</v>
+      </c>
+      <c r="V45">
+        <v>184.24199999999999</v>
+      </c>
+      <c r="W45">
+        <v>-2.5470000000000002</v>
+      </c>
+      <c r="X45">
+        <v>-67.078000000000003</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-5.383</v>
+      </c>
+      <c r="AA45">
+        <v>134.62299999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>113.85899999999999</v>
+      </c>
+      <c r="D46">
+        <v>948.70899999999995</v>
+      </c>
+      <c r="E46">
+        <v>767.18100000000004</v>
+      </c>
+      <c r="F46">
+        <v>294.83699999999999</v>
+      </c>
+      <c r="G46">
+        <v>2181.2370000000001</v>
+      </c>
+      <c r="H46">
+        <v>4445.2250000000004</v>
+      </c>
+      <c r="I46">
+        <v>377.86700000000002</v>
+      </c>
+      <c r="J46">
+        <v>1376.8309999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>642.41499999999996</v>
+      </c>
+      <c r="O46">
+        <v>2260.4389999999999</v>
+      </c>
+      <c r="P46">
+        <v>1377.1289999999999</v>
+      </c>
+      <c r="Q46">
+        <v>-175.09299999999999</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>39100</v>
+      </c>
+      <c r="T46">
+        <v>2184.7860000000001</v>
+      </c>
+      <c r="U46">
+        <v>515.08600000000001</v>
+      </c>
+      <c r="V46">
+        <v>168.61799999999999</v>
+      </c>
+      <c r="W46">
+        <v>-2.4940000000000002</v>
+      </c>
+      <c r="X46">
+        <v>-27.927</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-43.118000000000002</v>
+      </c>
+      <c r="AA46">
+        <v>113.85899999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>126.563</v>
+      </c>
+      <c r="D47">
+        <v>981.60400000000004</v>
+      </c>
+      <c r="E47">
+        <v>771.4</v>
+      </c>
+      <c r="F47">
+        <v>309.27100000000002</v>
+      </c>
+      <c r="G47">
+        <v>2291.8000000000002</v>
+      </c>
+      <c r="H47">
+        <v>4577.38</v>
+      </c>
+      <c r="I47">
+        <v>402.916</v>
+      </c>
+      <c r="J47">
+        <v>1316.819</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-708.74699999999996</v>
+      </c>
+      <c r="N47">
+        <v>744.97900000000004</v>
+      </c>
+      <c r="O47">
+        <v>2312.6619999999998</v>
+      </c>
+      <c r="P47">
+        <v>1395.117</v>
+      </c>
+      <c r="Q47">
+        <v>105.89700000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2264.7179999999998</v>
+      </c>
+      <c r="U47">
+        <v>620.98299999999995</v>
+      </c>
+      <c r="V47">
+        <v>164.20400000000001</v>
+      </c>
+      <c r="W47">
+        <v>-2.448</v>
+      </c>
+      <c r="X47">
+        <v>-42.917999999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>11.599</v>
+      </c>
+      <c r="AA47">
+        <v>126.563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>140.94200000000001</v>
+      </c>
+      <c r="D48">
+        <v>1061.107</v>
+      </c>
+      <c r="E48">
+        <v>840.09</v>
+      </c>
+      <c r="F48">
+        <v>334.161</v>
+      </c>
+      <c r="G48">
+        <v>2426.16</v>
+      </c>
+      <c r="H48">
+        <v>4766.8389999999999</v>
+      </c>
+      <c r="I48">
+        <v>431.95400000000001</v>
+      </c>
+      <c r="J48">
+        <v>1454.5450000000001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>801.65599999999995</v>
+      </c>
+      <c r="O48">
+        <v>2503.3220000000001</v>
+      </c>
+      <c r="P48">
+        <v>1543.829</v>
+      </c>
+      <c r="Q48">
+        <v>25.030999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2263.5169999999998</v>
+      </c>
+      <c r="U48">
+        <v>646.01400000000001</v>
+      </c>
+      <c r="V48">
+        <v>127.401</v>
+      </c>
+      <c r="W48">
+        <v>-17.052</v>
+      </c>
+      <c r="X48">
+        <v>28.681000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-12.201000000000001</v>
+      </c>
+      <c r="AA48">
+        <v>140.94200000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>147.44999999999999</v>
+      </c>
+      <c r="D49">
+        <v>1103.376</v>
+      </c>
+      <c r="E49">
+        <v>903.34400000000005</v>
+      </c>
+      <c r="F49">
+        <v>344.32900000000001</v>
+      </c>
+      <c r="G49">
+        <v>2640.9810000000002</v>
+      </c>
+      <c r="H49">
+        <v>5070.9650000000001</v>
+      </c>
+      <c r="I49">
+        <v>478.1</v>
+      </c>
+      <c r="J49">
+        <v>1511.297</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>864.58799999999997</v>
+      </c>
+      <c r="O49">
+        <v>2632.7469999999998</v>
+      </c>
+      <c r="P49">
+        <v>1605.39</v>
+      </c>
+      <c r="Q49">
+        <v>79.531999999999996</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2438.2179999999998</v>
+      </c>
+      <c r="U49">
+        <v>725.54600000000005</v>
+      </c>
+      <c r="V49">
+        <v>175.99799999999999</v>
+      </c>
+      <c r="W49">
+        <v>-16.885000000000002</v>
+      </c>
+      <c r="X49">
+        <v>59.003999999999998</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-32.895000000000003</v>
+      </c>
+      <c r="AA49">
+        <v>147.44999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>140.36199999999999</v>
+      </c>
+      <c r="D50">
+        <v>1145.9780000000001</v>
+      </c>
+      <c r="E50">
+        <v>910.71100000000001</v>
+      </c>
+      <c r="F50">
+        <v>355.45100000000002</v>
+      </c>
+      <c r="G50">
+        <v>2706.915</v>
+      </c>
+      <c r="H50">
+        <v>5215.4629999999997</v>
+      </c>
+      <c r="I50">
+        <v>496.52499999999998</v>
+      </c>
+      <c r="J50">
+        <v>1606.204</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>888.51400000000001</v>
+      </c>
+      <c r="O50">
+        <v>2773.2809999999999</v>
+      </c>
+      <c r="P50">
+        <v>1706.4970000000001</v>
+      </c>
+      <c r="Q50">
+        <v>-34.695999999999998</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>41600</v>
+      </c>
+      <c r="T50">
+        <v>2442.1819999999998</v>
+      </c>
+      <c r="U50">
+        <v>690.85</v>
+      </c>
+      <c r="V50">
+        <v>207.07599999999999</v>
+      </c>
+      <c r="W50">
+        <v>-33.737000000000002</v>
+      </c>
+      <c r="X50">
+        <v>-57.850999999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-84.308000000000007</v>
+      </c>
+      <c r="AA50">
+        <v>140.36199999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>153.00700000000001</v>
+      </c>
+      <c r="D51">
+        <v>1079.8050000000001</v>
+      </c>
+      <c r="E51">
+        <v>861.59799999999996</v>
+      </c>
+      <c r="F51">
+        <v>337.892</v>
+      </c>
+      <c r="G51">
+        <v>2725.6709999999998</v>
+      </c>
+      <c r="H51">
+        <v>5213.9610000000002</v>
+      </c>
+      <c r="I51">
+        <v>445.517</v>
+      </c>
+      <c r="J51">
+        <v>1596.05</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-119.215</v>
+      </c>
+      <c r="N51">
+        <v>815.01400000000001</v>
+      </c>
+      <c r="O51">
+        <v>2696.8939999999998</v>
+      </c>
+      <c r="P51">
+        <v>1688.24</v>
+      </c>
+      <c r="Q51">
+        <v>44.143000000000001</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2517.067</v>
+      </c>
+      <c r="U51">
+        <v>734.99300000000005</v>
+      </c>
+      <c r="V51">
+        <v>180.25399999999999</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-65.06</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-35.256</v>
+      </c>
+      <c r="AA51">
+        <v>153.00700000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>153.988</v>
+      </c>
+      <c r="D52">
+        <v>1136.067</v>
+      </c>
+      <c r="E52">
+        <v>905.82299999999998</v>
+      </c>
+      <c r="F52">
+        <v>359.78800000000001</v>
+      </c>
+      <c r="G52">
+        <v>2874.47</v>
+      </c>
+      <c r="H52">
+        <v>5404.3010000000004</v>
+      </c>
+      <c r="I52">
+        <v>447.15899999999999</v>
+      </c>
+      <c r="J52">
+        <v>1698.951</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>815.55899999999997</v>
+      </c>
+      <c r="O52">
+        <v>2807.0410000000002</v>
+      </c>
+      <c r="P52">
+        <v>1782.55</v>
+      </c>
+      <c r="Q52">
+        <v>-11.334</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2597.2600000000002</v>
+      </c>
+      <c r="U52">
+        <v>723.65899999999999</v>
+      </c>
+      <c r="V52">
+        <v>180.55199999999999</v>
+      </c>
+      <c r="W52">
+        <v>-16.756</v>
+      </c>
+      <c r="X52">
+        <v>22.428000000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-131.98400000000001</v>
+      </c>
+      <c r="AA52">
+        <v>153.988</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>160.798</v>
+      </c>
+      <c r="D53">
+        <v>1153.0619999999999</v>
+      </c>
+      <c r="E53">
+        <v>926.19399999999996</v>
+      </c>
+      <c r="F53">
+        <v>363.84800000000001</v>
+      </c>
+      <c r="G53">
+        <v>3077.5349999999999</v>
+      </c>
+      <c r="H53">
+        <v>5640.6809999999996</v>
+      </c>
+      <c r="I53">
+        <v>481.02199999999999</v>
+      </c>
+      <c r="J53">
+        <v>1784.539</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>893.20100000000002</v>
+      </c>
+      <c r="O53">
+        <v>2974.1610000000001</v>
+      </c>
+      <c r="P53">
+        <v>1869.5260000000001</v>
+      </c>
+      <c r="Q53">
+        <v>165.70699999999999</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2666.52</v>
+      </c>
+      <c r="U53">
+        <v>889.36599999999999</v>
+      </c>
+      <c r="V53">
+        <v>196.91800000000001</v>
+      </c>
+      <c r="W53">
+        <v>-16.716000000000001</v>
+      </c>
+      <c r="X53">
+        <v>-32.698999999999998</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>24.678000000000001</v>
+      </c>
+      <c r="AA53">
+        <v>160.798</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>167.90700000000001</v>
+      </c>
+      <c r="D54">
+        <v>1245.7660000000001</v>
+      </c>
+      <c r="E54">
+        <v>1001</v>
+      </c>
+      <c r="F54">
+        <v>389.27199999999999</v>
+      </c>
+      <c r="G54">
+        <v>3157.6</v>
+      </c>
+      <c r="H54">
+        <v>6168</v>
+      </c>
+      <c r="I54">
+        <v>549.9</v>
+      </c>
+      <c r="J54">
+        <v>1431.4</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1609.9</v>
+      </c>
+      <c r="O54">
+        <v>3287.9</v>
+      </c>
+      <c r="P54">
+        <v>2132.8000000000002</v>
+      </c>
+      <c r="Q54">
+        <v>-2.516</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>44500</v>
+      </c>
+      <c r="T54">
+        <v>2880.1</v>
+      </c>
+      <c r="U54">
+        <v>886.8</v>
+      </c>
+      <c r="V54">
+        <v>211.376</v>
+      </c>
+      <c r="W54">
+        <v>-63.328000000000003</v>
+      </c>
+      <c r="X54">
+        <v>183.83099999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>88.861999999999995</v>
+      </c>
+      <c r="AA54">
+        <v>167.90700000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>158.5</v>
+      </c>
+      <c r="D55">
+        <v>1246.0999999999999</v>
+      </c>
+      <c r="E55">
+        <v>971.57600000000002</v>
+      </c>
+      <c r="F55">
+        <v>388.9</v>
+      </c>
+      <c r="G55">
+        <v>3204.4670000000001</v>
+      </c>
+      <c r="H55">
+        <v>6230.2030000000004</v>
+      </c>
+      <c r="I55">
+        <v>479.786</v>
+      </c>
+      <c r="J55">
+        <v>1522.57</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-801.1</v>
+      </c>
+      <c r="N55">
+        <v>1556.204</v>
+      </c>
+      <c r="O55">
+        <v>3334.3409999999999</v>
+      </c>
+      <c r="P55">
+        <v>2223.6149999999998</v>
+      </c>
+      <c r="Q55">
+        <v>136.5</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2895.8620000000001</v>
+      </c>
+      <c r="U55">
+        <v>1023.32</v>
+      </c>
+      <c r="V55">
+        <v>202.7</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-21</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>24.3</v>
+      </c>
+      <c r="AA55">
+        <v>158.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>174.9</v>
+      </c>
+      <c r="D56">
+        <v>1314.2</v>
+      </c>
+      <c r="E56">
+        <v>1031.0709999999999</v>
+      </c>
+      <c r="F56">
+        <v>416.8</v>
+      </c>
+      <c r="G56">
+        <v>3462.3850000000002</v>
+      </c>
+      <c r="H56">
+        <v>6517.3</v>
+      </c>
+      <c r="I56">
+        <v>534.38099999999997</v>
+      </c>
+      <c r="J56">
+        <v>1542.8910000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1711.7929999999999</v>
+      </c>
+      <c r="O56">
+        <v>3518.7109999999998</v>
+      </c>
+      <c r="P56">
+        <v>2343.5610000000001</v>
+      </c>
+      <c r="Q56">
+        <v>56.8</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2998.5889999999999</v>
+      </c>
+      <c r="U56">
+        <v>1080.0830000000001</v>
+      </c>
+      <c r="V56">
+        <v>180.6</v>
+      </c>
+      <c r="W56">
+        <v>-31.4</v>
+      </c>
+      <c r="X56">
+        <v>18.7</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-86.9</v>
+      </c>
+      <c r="AA56">
+        <v>174.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>182.2</v>
+      </c>
+      <c r="D57">
+        <v>1358.7</v>
+      </c>
+      <c r="E57">
+        <v>1092.424</v>
+      </c>
+      <c r="F57">
+        <v>431.6</v>
+      </c>
+      <c r="G57">
+        <v>3372.5720000000001</v>
+      </c>
+      <c r="H57">
+        <v>6851.7690000000002</v>
+      </c>
+      <c r="I57">
+        <v>599.75400000000002</v>
+      </c>
+      <c r="J57">
+        <v>2023.1780000000001</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1555.3969999999999</v>
+      </c>
+      <c r="O57">
+        <v>3854.1089999999999</v>
+      </c>
+      <c r="P57">
+        <v>2623.9810000000002</v>
+      </c>
+      <c r="Q57">
+        <v>-207.1</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>2997.66</v>
+      </c>
+      <c r="U57">
+        <v>872.99900000000002</v>
+      </c>
+      <c r="V57">
+        <v>224.1</v>
+      </c>
+      <c r="W57">
+        <v>-70.5</v>
+      </c>
+      <c r="X57">
+        <v>94.6</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-5.8</v>
+      </c>
+      <c r="AA57">
+        <v>182.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>193.5</v>
+      </c>
+      <c r="D58">
+        <v>1426.5</v>
+      </c>
+      <c r="E58">
+        <v>1123.7</v>
+      </c>
+      <c r="F58">
+        <v>456.5</v>
+      </c>
+      <c r="G58">
+        <v>3452.2</v>
+      </c>
+      <c r="H58">
+        <v>6985.9</v>
+      </c>
+      <c r="I58">
+        <v>618.4</v>
+      </c>
+      <c r="J58">
+        <v>2654.6</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1045.5999999999999</v>
+      </c>
+      <c r="O58">
+        <v>4048</v>
+      </c>
+      <c r="P58">
+        <v>2656.2</v>
+      </c>
+      <c r="Q58">
+        <v>95.9</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>50700</v>
+      </c>
+      <c r="T58">
+        <v>2937.9</v>
+      </c>
+      <c r="U58">
+        <v>968.9</v>
+      </c>
+      <c r="V58">
+        <v>273.5</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-78.2</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AA58">
+        <v>193.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>179.8</v>
+      </c>
+      <c r="D59">
+        <v>1327.1</v>
+      </c>
+      <c r="E59">
+        <v>1091.8</v>
+      </c>
+      <c r="F59">
+        <v>424.6</v>
+      </c>
+      <c r="G59">
+        <v>3533.8</v>
+      </c>
+      <c r="H59">
+        <v>7025.6</v>
+      </c>
+      <c r="I59">
+        <v>582.9</v>
+      </c>
+      <c r="J59">
+        <v>2757</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-86.2</v>
+      </c>
+      <c r="N59">
+        <v>925.7</v>
+      </c>
+      <c r="O59">
+        <v>4046.4</v>
+      </c>
+      <c r="P59">
+        <v>2758.6</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2979.2</v>
+      </c>
+      <c r="U59">
+        <v>969.9</v>
+      </c>
+      <c r="V59">
+        <v>188.3</v>
+      </c>
+      <c r="W59">
+        <v>-77.5</v>
+      </c>
+      <c r="X59">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-20.5</v>
+      </c>
+      <c r="AA59">
+        <v>179.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>179</v>
+      </c>
+      <c r="D60">
+        <v>1351.5</v>
+      </c>
+      <c r="E60">
+        <v>1089.5</v>
+      </c>
+      <c r="F60">
+        <v>432.5</v>
+      </c>
+      <c r="G60">
+        <v>3592.8</v>
+      </c>
+      <c r="H60">
+        <v>7228.7</v>
+      </c>
+      <c r="I60">
+        <v>559.5</v>
+      </c>
+      <c r="J60">
+        <v>2759.2</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>984.7</v>
+      </c>
+      <c r="O60">
+        <v>4125.8999999999996</v>
+      </c>
+      <c r="P60">
+        <v>2759.6</v>
+      </c>
+      <c r="Q60">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3102.8</v>
+      </c>
+      <c r="U60">
+        <v>1242.8</v>
+      </c>
+      <c r="V60">
+        <v>234.5</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-52</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>226.7</v>
+      </c>
+      <c r="AA60">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>204.5</v>
+      </c>
+      <c r="D61">
+        <v>1459.6</v>
+      </c>
+      <c r="E61">
+        <v>1163.3</v>
+      </c>
+      <c r="F61">
+        <v>464</v>
+      </c>
+      <c r="G61">
+        <v>3862.3</v>
+      </c>
+      <c r="H61">
+        <v>7485.6</v>
+      </c>
+      <c r="I61">
+        <v>661.5</v>
+      </c>
+      <c r="J61">
+        <v>2853</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1081.3</v>
+      </c>
+      <c r="O61">
+        <v>4304.2</v>
+      </c>
+      <c r="P61">
+        <v>2853.4</v>
+      </c>
+      <c r="Q61">
+        <v>332.8</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3181.4</v>
+      </c>
+      <c r="U61">
+        <v>1575.6</v>
+      </c>
+      <c r="V61">
+        <v>285.39999999999998</v>
+      </c>
+      <c r="W61">
+        <v>-38.6</v>
+      </c>
+      <c r="X61">
+        <v>7.2</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>131.4</v>
+      </c>
+      <c r="AA61">
+        <v>204.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>200.2</v>
+      </c>
+      <c r="D62">
+        <v>1430.5</v>
+      </c>
+      <c r="E62">
+        <v>1104.5999999999999</v>
+      </c>
+      <c r="F62">
+        <v>458.4</v>
+      </c>
+      <c r="G62">
+        <v>3850</v>
+      </c>
+      <c r="H62">
+        <v>7458.4</v>
+      </c>
+      <c r="I62">
+        <v>587.79999999999995</v>
+      </c>
+      <c r="J62">
+        <v>2813.2</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1008.4</v>
+      </c>
+      <c r="O62">
+        <v>4180</v>
+      </c>
+      <c r="P62">
+        <v>2813.5</v>
+      </c>
+      <c r="Q62">
+        <v>161.6</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>50700</v>
+      </c>
+      <c r="T62">
+        <v>3278.4</v>
+      </c>
+      <c r="U62">
+        <v>1737.2</v>
+      </c>
+      <c r="V62">
+        <v>322.3</v>
+      </c>
+      <c r="W62">
+        <v>-43.2</v>
+      </c>
+      <c r="X62">
+        <v>-97.6</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-1.7</v>
+      </c>
+      <c r="AA62">
+        <v>200.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>156.6</v>
+      </c>
+      <c r="D63">
+        <v>1451.2</v>
+      </c>
+      <c r="E63">
+        <v>1201.9000000000001</v>
+      </c>
+      <c r="F63">
+        <v>459.2</v>
+      </c>
+      <c r="G63">
+        <v>2989.6</v>
+      </c>
+      <c r="H63">
+        <v>7890</v>
+      </c>
+      <c r="I63">
+        <v>615.4</v>
+      </c>
+      <c r="J63">
+        <v>2866.2</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1069.5999999999999</v>
+      </c>
+      <c r="O63">
+        <v>4465.8</v>
+      </c>
+      <c r="P63">
+        <v>2866.5</v>
+      </c>
+      <c r="Q63">
+        <v>-1050.2</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3424.2</v>
+      </c>
+      <c r="U63">
+        <v>687</v>
+      </c>
+      <c r="V63">
+        <v>194.2</v>
+      </c>
+      <c r="W63">
+        <v>-43.2</v>
+      </c>
+      <c r="X63">
+        <v>-29.8</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-3</v>
+      </c>
+      <c r="AA63">
+        <v>156.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>206.6</v>
+      </c>
+      <c r="D64">
+        <v>1548.2</v>
+      </c>
+      <c r="E64">
+        <v>1257.3</v>
+      </c>
+      <c r="F64">
+        <v>497.3</v>
+      </c>
+      <c r="G64">
+        <v>3158.1</v>
+      </c>
+      <c r="H64">
+        <v>8027</v>
+      </c>
+      <c r="I64">
+        <v>645.1</v>
+      </c>
+      <c r="J64">
+        <v>2834.6</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1100</v>
+      </c>
+      <c r="O64">
+        <v>4453.1000000000004</v>
+      </c>
+      <c r="P64">
+        <v>2834.9</v>
+      </c>
+      <c r="Q64">
+        <v>107</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>3573.9</v>
+      </c>
+      <c r="U64">
+        <v>794</v>
+      </c>
+      <c r="V64">
+        <v>243.6</v>
+      </c>
+      <c r="W64">
+        <v>-43.1</v>
+      </c>
+      <c r="X64">
+        <v>-69.599999999999994</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-4.8</v>
+      </c>
+      <c r="AA64">
+        <v>206.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>224.3</v>
+      </c>
+      <c r="D65">
+        <v>1635.9</v>
+      </c>
+      <c r="E65">
+        <v>1319.4</v>
+      </c>
+      <c r="F65">
+        <v>537.29999999999995</v>
+      </c>
+      <c r="G65">
+        <v>3405.2</v>
+      </c>
+      <c r="H65">
+        <v>8369.7999999999993</v>
+      </c>
+      <c r="I65">
+        <v>650.70000000000005</v>
+      </c>
+      <c r="J65">
+        <v>2598</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1513.5</v>
+      </c>
+      <c r="O65">
+        <v>4615.1000000000004</v>
+      </c>
+      <c r="P65">
+        <v>2972.5</v>
+      </c>
+      <c r="Q65">
+        <v>59.6</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>3754.7</v>
+      </c>
+      <c r="U65">
+        <v>853.6</v>
+      </c>
+      <c r="V65">
+        <v>290.89999999999998</v>
+      </c>
+      <c r="W65">
+        <v>-43.1</v>
+      </c>
+      <c r="X65">
+        <v>31.4</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-132.19999999999999</v>
+      </c>
+      <c r="AA65">
+        <v>224.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>235.4</v>
+      </c>
+      <c r="D66">
+        <v>1651.1</v>
+      </c>
+      <c r="E66">
+        <v>1349.3</v>
+      </c>
+      <c r="F66">
+        <v>546</v>
+      </c>
+      <c r="G66">
+        <v>3591.2</v>
+      </c>
+      <c r="H66">
+        <v>8498.7000000000007</v>
+      </c>
+      <c r="I66">
+        <v>678.2</v>
+      </c>
+      <c r="J66">
+        <v>2635.5</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1635.2</v>
+      </c>
+      <c r="O66">
+        <v>4775.6000000000004</v>
+      </c>
+      <c r="P66">
+        <v>3010.7</v>
+      </c>
+      <c r="Q66">
+        <v>181</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>62000</v>
+      </c>
+      <c r="T66">
+        <v>3723.1</v>
+      </c>
+      <c r="U66">
+        <v>1034.5999999999999</v>
+      </c>
+      <c r="V66">
+        <v>348.9</v>
+      </c>
+      <c r="W66">
+        <v>-43.3</v>
+      </c>
+      <c r="X66">
+        <v>-65.5</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AA66">
+        <v>235.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>224.9</v>
+      </c>
+      <c r="D67">
+        <v>1560.1</v>
+      </c>
+      <c r="E67">
+        <v>1318.3</v>
+      </c>
+      <c r="F67">
+        <v>515.9</v>
+      </c>
+      <c r="G67">
+        <v>3722.4</v>
+      </c>
+      <c r="H67">
+        <v>8707.4</v>
+      </c>
+      <c r="I67">
+        <v>682.4</v>
+      </c>
+      <c r="J67">
+        <v>2862.1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1583.3</v>
+      </c>
+      <c r="O67">
+        <v>4956.3</v>
+      </c>
+      <c r="P67">
+        <v>3237.2</v>
+      </c>
+      <c r="Q67">
+        <v>208.3</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>3751.1</v>
+      </c>
+      <c r="U67">
+        <v>1242.9000000000001</v>
+      </c>
+      <c r="V67">
+        <v>237.8</v>
+      </c>
+      <c r="W67">
+        <v>-49.3</v>
+      </c>
+      <c r="X67">
+        <v>-53.7</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>103.9</v>
+      </c>
+      <c r="AA67">
+        <v>224.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>251.5</v>
+      </c>
+      <c r="D68">
+        <v>1666.5</v>
+      </c>
+      <c r="E68">
+        <v>1407.3</v>
+      </c>
+      <c r="F68">
+        <v>552.6</v>
+      </c>
+      <c r="G68">
+        <v>3992.4</v>
+      </c>
+      <c r="H68">
+        <v>9172.9</v>
+      </c>
+      <c r="I68">
+        <v>769.9</v>
+      </c>
+      <c r="J68">
+        <v>3020.6</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1713.9</v>
+      </c>
+      <c r="O68">
+        <v>5257</v>
+      </c>
+      <c r="P68">
+        <v>3396.6</v>
+      </c>
+      <c r="Q68">
+        <v>74</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>3915.9</v>
+      </c>
+      <c r="U68">
+        <v>1316.9</v>
+      </c>
+      <c r="V68">
+        <v>280.39999999999998</v>
+      </c>
+      <c r="W68">
+        <v>-48.9</v>
+      </c>
+      <c r="X68">
+        <v>-11</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-5.9</v>
+      </c>
+      <c r="AA68">
+        <v>251.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>277.5</v>
+      </c>
+      <c r="D69">
+        <v>1840.8</v>
+      </c>
+      <c r="E69">
+        <v>1575.5</v>
+      </c>
+      <c r="F69">
+        <v>606.1</v>
+      </c>
+      <c r="G69">
+        <v>4352.8999999999996</v>
+      </c>
+      <c r="H69">
+        <v>9608.7999999999993</v>
+      </c>
+      <c r="I69">
+        <v>826.8</v>
+      </c>
+      <c r="J69">
+        <v>3559.7</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1433.7</v>
+      </c>
+      <c r="O69">
+        <v>5499.5</v>
+      </c>
+      <c r="P69">
+        <v>3560.8</v>
+      </c>
+      <c r="Q69">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>4109.3</v>
+      </c>
+      <c r="U69">
+        <v>1452.2</v>
+      </c>
+      <c r="V69">
+        <v>198.2</v>
+      </c>
+      <c r="W69">
+        <v>-48.9</v>
+      </c>
+      <c r="X69">
+        <v>17</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>6.3</v>
+      </c>
+      <c r="AA69">
+        <v>277.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-103.4</v>
+      </c>
+      <c r="D70">
+        <v>1943.9</v>
+      </c>
+      <c r="E70">
+        <v>1598.6</v>
+      </c>
+      <c r="F70">
+        <v>635.29999999999995</v>
+      </c>
+      <c r="G70">
+        <v>4656</v>
+      </c>
+      <c r="H70">
+        <v>10003.9</v>
+      </c>
+      <c r="I70">
+        <v>875.6</v>
+      </c>
+      <c r="J70">
+        <v>3541.5</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1579.4</v>
+      </c>
+      <c r="O70">
+        <v>5960.5</v>
+      </c>
+      <c r="P70">
+        <v>3542.6</v>
+      </c>
+      <c r="Q70">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>70000</v>
+      </c>
+      <c r="T70">
+        <v>4043.4</v>
+      </c>
+      <c r="U70">
+        <v>1719.1</v>
+      </c>
+      <c r="V70">
+        <v>427.8</v>
+      </c>
+      <c r="W70">
+        <v>-57.9</v>
+      </c>
+      <c r="X70">
+        <v>-92.4</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>3.5</v>
+      </c>
+      <c r="AA70">
+        <v>-103.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="D71">
+        <v>1866.9</v>
+      </c>
+      <c r="E71">
+        <v>1515.8</v>
+      </c>
+      <c r="F71">
+        <v>606.9</v>
+      </c>
+      <c r="G71">
+        <v>3937.1</v>
+      </c>
+      <c r="H71">
+        <v>9403.7000000000007</v>
+      </c>
+      <c r="I71">
+        <v>798.2</v>
+      </c>
+      <c r="J71">
+        <v>2489.4</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>-304.8</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2184.6999999999998</v>
+      </c>
+      <c r="O71">
+        <v>5435.8</v>
+      </c>
+      <c r="P71">
+        <v>3239.3</v>
+      </c>
+      <c r="Q71">
+        <v>-718.9</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>3967.9</v>
+      </c>
+      <c r="U71">
+        <v>1000.2</v>
+      </c>
+      <c r="V71">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="W71">
+        <v>-58.1</v>
+      </c>
+      <c r="X71">
+        <v>-728.2</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>11.3</v>
+      </c>
+      <c r="AA71">
+        <v>265.60000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>284.8</v>
+      </c>
+      <c r="D72">
+        <v>1981.4</v>
+      </c>
+      <c r="E72">
+        <v>1627.3</v>
+      </c>
+      <c r="F72">
+        <v>644.79999999999995</v>
+      </c>
+      <c r="G72">
+        <v>4021.4</v>
+      </c>
+      <c r="H72">
+        <v>9510.2999999999993</v>
+      </c>
+      <c r="I72">
+        <v>903.1</v>
+      </c>
+      <c r="J72">
+        <v>2668.2</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2340.8000000000002</v>
+      </c>
+      <c r="O72">
+        <v>5697.7</v>
+      </c>
+      <c r="P72">
+        <v>3436.6</v>
+      </c>
+      <c r="Q72">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3812.6</v>
+      </c>
+      <c r="U72">
+        <v>964.4</v>
+      </c>
+      <c r="V72">
+        <v>265.10000000000002</v>
+      </c>
+      <c r="W72">
+        <v>-57.4</v>
+      </c>
+      <c r="X72">
+        <v>-117.7</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-3</v>
+      </c>
+      <c r="AA72">
+        <v>284.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>316.5</v>
+      </c>
+      <c r="D73">
+        <v>2129</v>
+      </c>
+      <c r="E73">
+        <v>1737.6</v>
+      </c>
+      <c r="F73">
+        <v>688.2</v>
+      </c>
+      <c r="G73">
+        <v>4281.5</v>
+      </c>
+      <c r="H73">
+        <v>9742.6</v>
+      </c>
+      <c r="I73">
+        <v>1014</v>
+      </c>
+      <c r="J73">
+        <v>2468.3000000000002</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2543.1999999999998</v>
+      </c>
+      <c r="O73">
+        <v>5689.3</v>
+      </c>
+      <c r="P73">
+        <v>3258.5</v>
+      </c>
+      <c r="Q73">
+        <v>33.9</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>4053.3</v>
+      </c>
+      <c r="U73">
+        <v>998.3</v>
+      </c>
+      <c r="V73">
+        <v>339.2</v>
+      </c>
+      <c r="W73">
+        <v>-68.900000000000006</v>
+      </c>
+      <c r="X73">
+        <v>-222.7</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>4.7</v>
+      </c>
+      <c r="AA73">
+        <v>316.60000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>338.1</v>
+      </c>
+      <c r="D74">
+        <v>2224.6999999999998</v>
+      </c>
+      <c r="E74">
+        <v>1791.8</v>
+      </c>
+      <c r="F74">
+        <v>715</v>
+      </c>
+      <c r="G74">
+        <v>4571.6000000000004</v>
+      </c>
+      <c r="H74">
+        <v>10044.9</v>
+      </c>
+      <c r="I74">
+        <v>890.5</v>
+      </c>
+      <c r="J74">
+        <v>2806.4</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2451.3000000000002</v>
+      </c>
+      <c r="O74">
+        <v>5980.7</v>
+      </c>
+      <c r="P74">
+        <v>3570.7</v>
+      </c>
+      <c r="Q74">
+        <v>281</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>73600</v>
+      </c>
+      <c r="T74">
+        <v>4064.2</v>
+      </c>
+      <c r="U74">
+        <v>1279.3</v>
+      </c>
+      <c r="V74">
+        <v>378.2</v>
+      </c>
+      <c r="W74">
+        <v>-69.3</v>
+      </c>
+      <c r="X74">
+        <v>-1.5</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AA74">
+        <v>338.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>267.5</v>
+      </c>
+      <c r="D75">
+        <v>1958.5</v>
+      </c>
+      <c r="E75">
+        <v>1661.9</v>
+      </c>
+      <c r="F75">
+        <v>627.79999999999995</v>
+      </c>
+      <c r="G75">
+        <v>4127.5</v>
+      </c>
+      <c r="H75">
+        <v>10208.1</v>
+      </c>
+      <c r="I75">
+        <v>797.1</v>
+      </c>
+      <c r="J75">
+        <v>3554.8</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-757.2</v>
+      </c>
+      <c r="N75">
+        <v>1649.2</v>
+      </c>
+      <c r="O75">
+        <v>6037.7</v>
+      </c>
+      <c r="P75">
+        <v>3740.9</v>
+      </c>
+      <c r="Q75">
+        <v>-309.60000000000002</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>4170.3999999999996</v>
+      </c>
+      <c r="U75">
+        <v>969.7</v>
+      </c>
+      <c r="V75">
+        <v>343.6</v>
+      </c>
+      <c r="W75">
+        <v>-68.7</v>
+      </c>
+      <c r="X75">
+        <v>-181.6</v>
+      </c>
+      <c r="Y75">
+        <v>117.4</v>
+      </c>
+      <c r="Z75">
+        <v>-5.6</v>
+      </c>
+      <c r="AA75">
+        <v>267.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>288.5</v>
+      </c>
+      <c r="D76">
+        <v>2015.3</v>
+      </c>
+      <c r="E76">
+        <v>1685</v>
+      </c>
+      <c r="F76">
+        <v>647.6</v>
+      </c>
+      <c r="G76">
+        <v>4222.1000000000004</v>
+      </c>
+      <c r="H76">
+        <v>10634</v>
+      </c>
+      <c r="I76">
+        <v>814.6</v>
+      </c>
+      <c r="J76">
+        <v>3569.4</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2052.9</v>
+      </c>
+      <c r="O76">
+        <v>6430.8</v>
+      </c>
+      <c r="P76">
+        <v>4152.8</v>
+      </c>
+      <c r="Q76">
+        <v>12.6</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>4203.2</v>
+      </c>
+      <c r="U76">
+        <v>982.3</v>
+      </c>
+      <c r="V76">
+        <v>322.39999999999998</v>
+      </c>
+      <c r="W76">
+        <v>-68.5</v>
+      </c>
+      <c r="X76">
+        <v>126.6</v>
+      </c>
+      <c r="Y76">
+        <v>121.7</v>
+      </c>
+      <c r="Z76">
+        <v>3.1</v>
+      </c>
+      <c r="AA76">
+        <v>288.39999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>280.3</v>
+      </c>
+      <c r="D77">
+        <v>2100.6</v>
+      </c>
+      <c r="E77">
+        <v>1689.1</v>
+      </c>
+      <c r="F77">
+        <v>661.9</v>
+      </c>
+      <c r="G77">
+        <v>4232.2</v>
+      </c>
+      <c r="H77">
+        <v>10683.6</v>
+      </c>
+      <c r="I77">
+        <v>830.7</v>
+      </c>
+      <c r="J77">
+        <v>3545.4</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2122.6</v>
+      </c>
+      <c r="O77">
+        <v>6472.5</v>
+      </c>
+      <c r="P77">
+        <v>4135.6000000000004</v>
+      </c>
+      <c r="Q77">
+        <v>-13</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>4211.1000000000004</v>
+      </c>
+      <c r="U77">
+        <v>969.3</v>
+      </c>
+      <c r="V77">
+        <v>412.2</v>
+      </c>
+      <c r="W77">
+        <v>-68.3</v>
+      </c>
+      <c r="X77">
+        <v>-191.4</v>
+      </c>
+      <c r="Y77">
+        <v>132.9</v>
+      </c>
+      <c r="Z77">
+        <v>-1.4</v>
+      </c>
+      <c r="AA77">
+        <v>280.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>318.7</v>
+      </c>
+      <c r="D78">
+        <v>2151</v>
+      </c>
+      <c r="E78">
+        <v>1736.4</v>
+      </c>
+      <c r="F78">
+        <v>678.7</v>
+      </c>
+      <c r="G78">
+        <v>4211.2</v>
+      </c>
+      <c r="H78">
+        <v>10815.5</v>
+      </c>
+      <c r="I78">
+        <v>866.8</v>
+      </c>
+      <c r="J78">
+        <v>3203.4</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2132.6999999999998</v>
+      </c>
+      <c r="O78">
+        <v>6219.3</v>
+      </c>
+      <c r="P78">
+        <v>3806.1</v>
+      </c>
+      <c r="Q78">
+        <v>-78.099999999999994</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>74000</v>
+      </c>
+      <c r="T78">
+        <v>4596.2</v>
+      </c>
+      <c r="U78">
+        <v>891.2</v>
+      </c>
+      <c r="V78">
+        <v>424.1</v>
+      </c>
+      <c r="W78">
+        <v>-74</v>
+      </c>
+      <c r="X78">
+        <v>-402</v>
+      </c>
+      <c r="Y78">
+        <v>145.4</v>
+      </c>
+      <c r="Z78">
+        <v>0.1</v>
+      </c>
+      <c r="AA78">
+        <v>318.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>242.1</v>
+      </c>
+      <c r="D79">
+        <v>1862</v>
+      </c>
+      <c r="E79">
+        <v>1540.5</v>
+      </c>
+      <c r="F79">
+        <v>559.79999999999995</v>
+      </c>
+      <c r="G79">
+        <v>5517.5</v>
+      </c>
+      <c r="H79">
+        <v>12077.7</v>
+      </c>
+      <c r="I79">
+        <v>817.2</v>
+      </c>
+      <c r="J79">
+        <v>4591.5</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>-250.4</v>
+      </c>
+      <c r="M79">
+        <v>-215.3</v>
+      </c>
+      <c r="N79">
+        <v>2170.1999999999998</v>
+      </c>
+      <c r="O79">
+        <v>7632</v>
+      </c>
+      <c r="P79">
+        <v>5092.3999999999996</v>
+      </c>
+      <c r="Q79">
+        <v>1481.1</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>4445.7</v>
+      </c>
+      <c r="U79">
+        <v>2372.3000000000002</v>
+      </c>
+      <c r="V79">
+        <v>384.3</v>
+      </c>
+      <c r="W79">
+        <v>-74.400000000000006</v>
+      </c>
+      <c r="X79">
+        <v>1187.4000000000001</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>5.7</v>
+      </c>
+      <c r="AA79">
+        <v>242.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>257.7</v>
+      </c>
+      <c r="D80">
+        <v>1987.5</v>
+      </c>
+      <c r="E80">
+        <v>1658.3</v>
+      </c>
+      <c r="F80">
+        <v>603.79999999999995</v>
+      </c>
+      <c r="G80">
+        <v>4618</v>
+      </c>
+      <c r="H80">
+        <v>11203.9</v>
+      </c>
+      <c r="I80">
+        <v>928</v>
+      </c>
+      <c r="J80">
+        <v>3763.8</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1785.2</v>
+      </c>
+      <c r="O80">
+        <v>6403.6</v>
+      </c>
+      <c r="P80">
+        <v>3766.1</v>
+      </c>
+      <c r="Q80">
+        <v>-1084</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>4800.3</v>
+      </c>
+      <c r="U80">
+        <v>1288.3</v>
+      </c>
+      <c r="V80">
+        <v>368.1</v>
+      </c>
+      <c r="W80">
+        <v>-74</v>
+      </c>
+      <c r="X80">
+        <v>-1378.8</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>-14.5</v>
+      </c>
+      <c r="AA80">
+        <v>257.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>346.6</v>
+      </c>
+      <c r="D81">
+        <v>2323.4</v>
+      </c>
+      <c r="E81">
+        <v>1880.3</v>
+      </c>
+      <c r="F81">
+        <v>734.9</v>
+      </c>
+      <c r="G81">
+        <v>5037</v>
+      </c>
+      <c r="H81">
+        <v>11753.9</v>
+      </c>
+      <c r="I81">
+        <v>1075.9000000000001</v>
+      </c>
+      <c r="J81">
+        <v>3586</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2215</v>
+      </c>
+      <c r="O81">
+        <v>6648.7</v>
+      </c>
+      <c r="P81">
+        <v>3815.2</v>
+      </c>
+      <c r="Q81">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>5105.2</v>
+      </c>
+      <c r="U81">
+        <v>1420.5</v>
+      </c>
+      <c r="V81">
+        <v>398.6</v>
+      </c>
+      <c r="W81">
+        <v>-74.599999999999994</v>
+      </c>
+      <c r="X81">
+        <v>-192.8</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>-9.4</v>
+      </c>
+      <c r="AA81">
+        <v>346.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>357</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2426</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1951.6</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>765.6</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>5490.8</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>12327.3</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1120.7</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>3636.2</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2304.3000000000002</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>6875.4</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>4095.6</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>281.5</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>80000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>5451.9</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1702</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>441</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-74.599999999999994</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-132.4</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>161.1</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-0.2</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>357</v>
       </c>
     </row>
